--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_0_17.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_0_17.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>962961.1131502505</v>
+        <v>968453.4201130312</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1667317.432543013</v>
+        <v>1667317.432543014</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7966425.477977808</v>
+        <v>7966425.477977806</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7796784.575617743</v>
+        <v>7796784.575617741</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>141.460551723358</v>
       </c>
       <c r="C2" t="n">
         <v>389.2437464820987</v>
@@ -665,16 +667,16 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -713,19 +715,19 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>226.2448983225648</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -820,25 +822,25 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>100.3434053864687</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>53.03638470914571</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -899,13 +901,13 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>66.68447052885355</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -941,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>63.38830413129869</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
         <v>253.1952022697474</v>
@@ -956,7 +958,7 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
         <v>385.5580790162737</v>
@@ -1099,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
         <v>233.3618613134482</v>
@@ -1111,10 +1113,10 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>53.03638470914571</v>
       </c>
       <c r="W7" t="n">
-        <v>113.1667354347865</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1133,10 +1135,10 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
         <v>398.5576896346209</v>
@@ -1148,7 +1150,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>164.8484195083599</v>
@@ -1190,13 +1192,13 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>36.75402088169838</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>82.44954750616753</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1336,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>113.1667354347866</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>233.3618613134482</v>
@@ -1348,7 +1350,7 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>53.03638470914571</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1382,13 +1384,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G11" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,13 +1417,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>54.25015388424845</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1433,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y11" t="n">
-        <v>167.9683453503095</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="12">
@@ -1525,31 +1527,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>89.88464088382982</v>
       </c>
       <c r="D13" t="n">
-        <v>100.3434053864687</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.5715133615489</v>
       </c>
       <c r="H13" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1591,10 +1593,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="14">
@@ -1610,16 +1612,16 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D14" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1664,10 +1666,10 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>302.1480073738686</v>
+        <v>229.2671475085639</v>
       </c>
       <c r="W14" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>385.5580790162737</v>
@@ -1783,10 +1785,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>22.96189723698664</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1810,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>233.3618613134482</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U16" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1844,22 +1846,22 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>404.7979889686533</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H17" t="n">
-        <v>320.8422199291742</v>
+        <v>300.7442715783694</v>
       </c>
       <c r="I17" t="n">
         <v>136.9537457384598</v>
@@ -1892,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U17" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="18">
@@ -1999,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>41.12706183054251</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2056,19 +2058,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>66.03149870010074</v>
       </c>
       <c r="Y19" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2078,22 +2080,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C20" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
-        <v>381.5867174954989</v>
+        <v>104.2974551061861</v>
       </c>
       <c r="E20" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>250.8496526582665</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T20" t="n">
         <v>221.2655964161775</v>
@@ -2144,10 +2146,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="21">
@@ -2236,31 +2238,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E22" t="n">
-        <v>33.46568883433509</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F22" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G22" t="n">
-        <v>166.5715133615489</v>
+        <v>76.74086563202125</v>
       </c>
       <c r="H22" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2305,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2321,19 +2323,19 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E23" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H23" t="n">
-        <v>263.1139869685306</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2369,22 +2371,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>385.5580790162737</v>
+        <v>233.2385090293379</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="24">
@@ -2473,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>168.5030667546707</v>
+        <v>66.03149870010074</v>
       </c>
       <c r="D25" t="n">
-        <v>87.95308749070786</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2530,19 +2532,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X25" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2575,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I26" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2600,13 +2602,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>102.4606870030763</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2621,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>3.119925841949662</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2716,25 +2718,25 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>100.3434053864687</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.5715133615489</v>
       </c>
       <c r="H28" t="n">
-        <v>153.923765528121</v>
+        <v>9.126850821345453</v>
       </c>
       <c r="I28" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2761,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2795,19 +2797,19 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F29" t="n">
-        <v>208.0952379273908</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I29" t="n">
         <v>136.9537457384598</v>
@@ -2849,16 +2851,16 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>392.5258019886049</v>
+        <v>167.9683453503095</v>
       </c>
     </row>
     <row r="30">
@@ -2947,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D31" t="n">
-        <v>39.19550843742099</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2965,13 +2967,13 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>49.85489993703337</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -3013,10 +3015,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y31" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3026,13 +3028,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>178.3441276800548</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C32" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D32" t="n">
-        <v>381.5867174954989</v>
+        <v>229.2671475085637</v>
       </c>
       <c r="E32" t="n">
         <v>398.5576896346209</v>
@@ -3044,10 +3046,10 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H32" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3092,10 +3094,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="33">
@@ -3184,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3238,22 +3240,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>113.1667354347865</v>
       </c>
       <c r="X34" t="n">
-        <v>165.6158245190444</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3263,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>398.5576896346209</v>
+        <v>47.32622624132694</v>
       </c>
       <c r="F35" t="n">
         <v>412.725494085322</v>
@@ -3311,10 +3313,10 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3323,16 +3325,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y35" t="n">
-        <v>167.9683453503095</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="36">
@@ -3472,22 +3474,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U37" t="n">
-        <v>116.876383545772</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V37" t="n">
-        <v>263.319551727384</v>
+        <v>175.6983641828944</v>
       </c>
       <c r="W37" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3500,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>21.69931700107992</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D38" t="n">
-        <v>381.5867174954989</v>
+        <v>66.68447052885357</v>
       </c>
       <c r="E38" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3548,13 +3550,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U38" t="n">
         <v>253.1952022697474</v>
@@ -3569,7 +3571,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="39">
@@ -3661,10 +3663,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>41.14741695800816</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E40" t="n">
         <v>154.0032240193895</v>
@@ -3715,10 +3717,10 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>133.5207356555236</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3727,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="41">
@@ -3737,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>398.5576896346209</v>
@@ -3752,13 +3754,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
-        <v>409.0311279568768</v>
+        <v>57.79966456358211</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3785,10 +3787,10 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3797,13 +3799,13 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
-        <v>233.2385090293388</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y41" t="n">
         <v>392.5258019886049</v>
@@ -3907,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>125.6476561767118</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3949,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U43" t="n">
         <v>282.5844038405181</v>
@@ -3961,10 +3963,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>113.1667354347866</v>
       </c>
       <c r="Y43" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3974,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>130.3479955178789</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C44" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3995,7 +3997,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I44" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,22 +4027,22 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>259.4997525758914</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>392.5258019886049</v>
@@ -4132,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>93.52529077486058</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4189,16 +4191,16 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>66.03149870010071</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>840.7357579845172</v>
+        <v>2397.459527283501</v>
       </c>
       <c r="C2" t="n">
-        <v>447.5602564874478</v>
+        <v>2004.284025786432</v>
       </c>
       <c r="D2" t="n">
-        <v>62.11912770411553</v>
+        <v>1618.8428970031</v>
       </c>
       <c r="E2" t="n">
-        <v>62.11912770411553</v>
+        <v>1216.259372119644</v>
       </c>
       <c r="F2" t="n">
-        <v>62.11912770411553</v>
+        <v>799.3649336496217</v>
       </c>
       <c r="G2" t="n">
-        <v>62.11912770411553</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="H2" t="n">
         <v>62.11912770411553</v>
@@ -4361,19 +4363,19 @@
         <v>2882.455782765193</v>
       </c>
       <c r="U2" t="n">
-        <v>2626.703053199792</v>
+        <v>2882.455782765193</v>
       </c>
       <c r="V2" t="n">
-        <v>2398.172852873969</v>
+        <v>2540.348973468711</v>
       </c>
       <c r="W2" t="n">
-        <v>2027.173817842256</v>
+        <v>2540.348973468711</v>
       </c>
       <c r="X2" t="n">
-        <v>1637.721212775313</v>
+        <v>2540.348973468711</v>
       </c>
       <c r="Y2" t="n">
-        <v>1241.230503695914</v>
+        <v>2540.348973468711</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1586.986833370171</v>
+        <v>861.4851108441464</v>
       </c>
       <c r="C3" t="n">
-        <v>1436.332602930263</v>
+        <v>710.8308804042387</v>
       </c>
       <c r="D3" t="n">
-        <v>1306.243635551744</v>
+        <v>580.741913025719</v>
       </c>
       <c r="E3" t="n">
-        <v>1169.797144662632</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F3" t="n">
-        <v>1045.365338545763</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G3" t="n">
-        <v>925.3055206176277</v>
+        <v>199.803798091603</v>
       </c>
       <c r="H3" t="n">
-        <v>837.0081042182287</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I3" t="n">
-        <v>787.6208502301403</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J3" t="n">
-        <v>900.7358324498676</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K3" t="n">
-        <v>1220.474978512094</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L3" t="n">
-        <v>1704.041064410407</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M3" t="n">
-        <v>1949.449642343508</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N3" t="n">
-        <v>1949.449642343508</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O3" t="n">
-        <v>2465.969924934489</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P3" t="n">
-        <v>2871.591293650886</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q3" t="n">
-        <v>3105.956385205776</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="R3" t="n">
-        <v>3082.039342103841</v>
+        <v>2356.537619577816</v>
       </c>
       <c r="S3" t="n">
-        <v>2947.10866500371</v>
+        <v>2221.606942477685</v>
       </c>
       <c r="T3" t="n">
-        <v>2770.124853202618</v>
+        <v>2044.623130676593</v>
       </c>
       <c r="U3" t="n">
-        <v>2560.06170988126</v>
+        <v>1834.559987355235</v>
       </c>
       <c r="V3" t="n">
-        <v>2337.521708252327</v>
+        <v>1612.019985726302</v>
       </c>
       <c r="W3" t="n">
-        <v>2107.404462385613</v>
+        <v>1381.902739859589</v>
       </c>
       <c r="X3" t="n">
-        <v>1918.097384735625</v>
+        <v>1192.595662209601</v>
       </c>
       <c r="Y3" t="n">
-        <v>1738.783167811132</v>
+        <v>1013.281445285108</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C4" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D4" t="n">
-        <v>862.2091751078208</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E4" t="n">
-        <v>706.6503629670233</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F4" t="n">
-        <v>549.3244281799962</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G4" t="n">
-        <v>381.0703742794417</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H4" t="n">
-        <v>225.5918232409357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I4" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J4" t="n">
         <v>62.11912770411553</v>
@@ -4510,28 +4512,28 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R4" t="n">
-        <v>963.5661502456679</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="S4" t="n">
-        <v>963.5661502456679</v>
+        <v>636.8490770607943</v>
       </c>
       <c r="T4" t="n">
-        <v>963.5661502456679</v>
+        <v>401.1300252290284</v>
       </c>
       <c r="U4" t="n">
-        <v>963.5661502456679</v>
+        <v>115.6912334709294</v>
       </c>
       <c r="V4" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="W4" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X4" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y4" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1257.630196454539</v>
+        <v>522.652680240431</v>
       </c>
       <c r="C5" t="n">
-        <v>864.45469495747</v>
+        <v>129.4771787433615</v>
       </c>
       <c r="D5" t="n">
-        <v>479.0135661741377</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E5" t="n">
-        <v>479.0135661741377</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F5" t="n">
         <v>62.11912770411553</v>
@@ -4589,28 +4591,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R5" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S5" t="n">
-        <v>3105.956385205776</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T5" t="n">
-        <v>3041.927795174161</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="U5" t="n">
-        <v>2786.17506560876</v>
+        <v>2422.196584426364</v>
       </c>
       <c r="V5" t="n">
-        <v>2444.068256312279</v>
+        <v>2080.089775129883</v>
       </c>
       <c r="W5" t="n">
-        <v>2444.068256312279</v>
+        <v>1709.09074009817</v>
       </c>
       <c r="X5" t="n">
-        <v>2054.615651245335</v>
+        <v>1319.638135031227</v>
       </c>
       <c r="Y5" t="n">
-        <v>1658.124942165936</v>
+        <v>923.1474259518279</v>
       </c>
     </row>
     <row r="6">
@@ -4647,22 +4649,22 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K6" t="n">
-        <v>494.9732559860694</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L6" t="n">
-        <v>978.5393418843826</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M6" t="n">
-        <v>978.5393418843826</v>
+        <v>1208.156408878212</v>
       </c>
       <c r="N6" t="n">
-        <v>1223.947919817482</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O6" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P6" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q6" t="n">
         <v>2380.454662679751</v>
@@ -4747,19 +4749,19 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R7" t="n">
-        <v>963.5661502456679</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="S7" t="n">
-        <v>963.5661502456679</v>
+        <v>636.8490770607943</v>
       </c>
       <c r="T7" t="n">
-        <v>727.847098413902</v>
+        <v>401.1300252290284</v>
       </c>
       <c r="U7" t="n">
-        <v>442.408306655803</v>
+        <v>115.6912334709294</v>
       </c>
       <c r="V7" t="n">
-        <v>176.4289614766272</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="W7" t="n">
         <v>62.11912770411553</v>
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1595.123960030147</v>
+        <v>1263.3065368829</v>
       </c>
       <c r="C8" t="n">
-        <v>1201.948458533077</v>
+        <v>1263.3065368829</v>
       </c>
       <c r="D8" t="n">
-        <v>1201.948458533077</v>
+        <v>877.865408099568</v>
       </c>
       <c r="E8" t="n">
-        <v>799.3649336496217</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="F8" t="n">
-        <v>799.3649336496217</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G8" t="n">
-        <v>386.2021781376249</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H8" t="n">
         <v>62.11912770411553</v>
@@ -4826,28 +4828,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R8" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S8" t="n">
-        <v>2901.449916432349</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="T8" t="n">
-        <v>2677.949313991765</v>
+        <v>2715.942227706244</v>
       </c>
       <c r="U8" t="n">
-        <v>2422.196584426364</v>
+        <v>2460.189498140842</v>
       </c>
       <c r="V8" t="n">
-        <v>2385.071310808487</v>
+        <v>2118.082688844361</v>
       </c>
       <c r="W8" t="n">
-        <v>2385.071310808487</v>
+        <v>1747.083653812648</v>
       </c>
       <c r="X8" t="n">
-        <v>1995.618705741544</v>
+        <v>1663.801282594297</v>
       </c>
       <c r="Y8" t="n">
-        <v>1995.618705741544</v>
+        <v>1663.801282594297</v>
       </c>
     </row>
     <row r="9">
@@ -4884,13 +4886,13 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K9" t="n">
-        <v>62.11912770411553</v>
+        <v>84.60386270860994</v>
       </c>
       <c r="L9" t="n">
-        <v>545.6852136024288</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="M9" t="n">
-        <v>1173.45686322911</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N9" t="n">
         <v>1223.947919817482</v>
@@ -4984,16 +4986,16 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R10" t="n">
-        <v>839.6651608782449</v>
+        <v>849.2563164731562</v>
       </c>
       <c r="S10" t="n">
-        <v>636.8490770607943</v>
+        <v>849.2563164731562</v>
       </c>
       <c r="T10" t="n">
-        <v>401.1300252290284</v>
+        <v>613.5372646413903</v>
       </c>
       <c r="U10" t="n">
-        <v>115.6912334709294</v>
+        <v>328.0984728832913</v>
       </c>
       <c r="V10" t="n">
         <v>62.11912770411553</v>
@@ -5015,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2535.796644191037</v>
+        <v>1660.213721337995</v>
       </c>
       <c r="C11" t="n">
-        <v>2142.621142693967</v>
+        <v>1267.038219840925</v>
       </c>
       <c r="D11" t="n">
-        <v>1757.180013910635</v>
+        <v>881.5970910575932</v>
       </c>
       <c r="E11" t="n">
-        <v>1354.596489027179</v>
+        <v>479.0135661741377</v>
       </c>
       <c r="F11" t="n">
-        <v>937.702050557157</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G11" t="n">
-        <v>524.5392950451601</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H11" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I11" t="n">
         <v>62.11912770411553</v>
@@ -5063,28 +5065,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R11" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S11" t="n">
-        <v>3105.956385205776</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T11" t="n">
-        <v>3105.956385205776</v>
+        <v>2846.651781195734</v>
       </c>
       <c r="U11" t="n">
-        <v>3105.956385205776</v>
+        <v>2846.651781195734</v>
       </c>
       <c r="V11" t="n">
-        <v>3105.956385205776</v>
+        <v>2846.651781195734</v>
       </c>
       <c r="W11" t="n">
-        <v>3105.956385205776</v>
+        <v>2846.651781195734</v>
       </c>
       <c r="X11" t="n">
-        <v>3105.956385205776</v>
+        <v>2457.199176128791</v>
       </c>
       <c r="Y11" t="n">
-        <v>2936.291389902433</v>
+        <v>2060.708467049392</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5120,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K12" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L12" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M12" t="n">
-        <v>1173.45686322911</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N12" t="n">
-        <v>1829.234834439669</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O12" t="n">
-        <v>2345.75511703065</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P12" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>963.5661502456679</v>
+        <v>321.165748153993</v>
       </c>
       <c r="C13" t="n">
-        <v>963.5661502456679</v>
+        <v>230.37318160467</v>
       </c>
       <c r="D13" t="n">
-        <v>862.2091751078208</v>
+        <v>230.37318160467</v>
       </c>
       <c r="E13" t="n">
-        <v>706.6503629670233</v>
+        <v>230.37318160467</v>
       </c>
       <c r="F13" t="n">
-        <v>549.3244281799962</v>
+        <v>230.37318160467</v>
       </c>
       <c r="G13" t="n">
-        <v>381.0703742794417</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H13" t="n">
-        <v>225.5918232409357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I13" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
         <v>62.11912770411553</v>
@@ -5239,10 +5241,10 @@
         <v>963.5661502456679</v>
       </c>
       <c r="X13" t="n">
-        <v>963.5661502456679</v>
+        <v>729.485828028651</v>
       </c>
       <c r="Y13" t="n">
-        <v>963.5661502456679</v>
+        <v>506.3737668452943</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1243.319282867973</v>
+        <v>1687.93534806666</v>
       </c>
       <c r="C14" t="n">
-        <v>850.1437813709033</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="D14" t="n">
-        <v>464.702652587571</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E14" t="n">
-        <v>62.11912770411553</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F14" t="n">
-        <v>62.11912770411553</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G14" t="n">
         <v>62.11912770411553</v>
@@ -5312,16 +5314,16 @@
         <v>3105.956385205776</v>
       </c>
       <c r="V14" t="n">
-        <v>2800.756377757424</v>
+        <v>2874.373407924399</v>
       </c>
       <c r="W14" t="n">
-        <v>2429.757342725712</v>
+        <v>2874.373407924399</v>
       </c>
       <c r="X14" t="n">
-        <v>2040.304737658769</v>
+        <v>2484.920802857455</v>
       </c>
       <c r="Y14" t="n">
-        <v>1643.81402857937</v>
+        <v>2088.430093778056</v>
       </c>
     </row>
     <row r="15">
@@ -5358,19 +5360,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K15" t="n">
-        <v>62.11912770411553</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L15" t="n">
-        <v>545.6852136024288</v>
+        <v>381.858273766342</v>
       </c>
       <c r="M15" t="n">
-        <v>802.5350401618138</v>
+        <v>1009.629923393023</v>
       </c>
       <c r="N15" t="n">
-        <v>1458.313011372373</v>
+        <v>1665.407894603582</v>
       </c>
       <c r="O15" t="n">
-        <v>1974.833293963354</v>
+        <v>2181.928177194563</v>
       </c>
       <c r="P15" t="n">
         <v>2380.454662679751</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>115.6912334709294</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C16" t="n">
-        <v>115.6912334709294</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D16" t="n">
-        <v>115.6912334709294</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E16" t="n">
-        <v>115.6912334709294</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F16" t="n">
-        <v>115.6912334709294</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G16" t="n">
-        <v>115.6912334709294</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H16" t="n">
-        <v>115.6912334709294</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I16" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
         <v>62.11912770411553</v>
@@ -5458,28 +5460,28 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R16" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S16" t="n">
-        <v>636.8490770607943</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T16" t="n">
-        <v>401.1300252290284</v>
+        <v>896.8676667102127</v>
       </c>
       <c r="U16" t="n">
-        <v>115.6912334709294</v>
+        <v>611.4288749521137</v>
       </c>
       <c r="V16" t="n">
-        <v>115.6912334709294</v>
+        <v>345.4495297729379</v>
       </c>
       <c r="W16" t="n">
-        <v>115.6912334709294</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X16" t="n">
-        <v>115.6912334709294</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y16" t="n">
-        <v>115.6912334709294</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1346.588908101251</v>
+        <v>1696.017722907453</v>
       </c>
       <c r="C17" t="n">
-        <v>1346.588908101251</v>
+        <v>1302.842221410383</v>
       </c>
       <c r="D17" t="n">
-        <v>1346.588908101251</v>
+        <v>917.401092627051</v>
       </c>
       <c r="E17" t="n">
-        <v>1346.588908101251</v>
+        <v>917.401092627051</v>
       </c>
       <c r="F17" t="n">
-        <v>937.702050557157</v>
+        <v>917.401092627051</v>
       </c>
       <c r="G17" t="n">
-        <v>524.5392950451601</v>
+        <v>504.2383371150541</v>
       </c>
       <c r="H17" t="n">
         <v>200.4562446116507</v>
       </c>
       <c r="I17" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J17" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129427</v>
       </c>
       <c r="K17" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404046</v>
       </c>
       <c r="L17" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358933</v>
       </c>
       <c r="M17" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403514</v>
       </c>
       <c r="N17" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040976</v>
       </c>
       <c r="O17" t="n">
-        <v>2572.923332933306</v>
+        <v>2572.923332933305</v>
       </c>
       <c r="P17" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q17" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="R17" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="S17" t="n">
-        <v>2939.442830146827</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="T17" t="n">
-        <v>2715.942227706244</v>
+        <v>2882.455782765192</v>
       </c>
       <c r="U17" t="n">
-        <v>2460.189498140842</v>
+        <v>2882.455782765192</v>
       </c>
       <c r="V17" t="n">
-        <v>2118.082688844361</v>
+        <v>2882.455782765192</v>
       </c>
       <c r="W17" t="n">
-        <v>1747.083653812648</v>
+        <v>2882.455782765192</v>
       </c>
       <c r="X17" t="n">
-        <v>1747.083653812648</v>
+        <v>2493.003177698249</v>
       </c>
       <c r="Y17" t="n">
-        <v>1747.083653812648</v>
+        <v>2096.51246861885</v>
       </c>
     </row>
     <row r="18">
@@ -5577,10 +5579,10 @@
         <v>580.741913025719</v>
       </c>
       <c r="E18" t="n">
-        <v>444.2954221366068</v>
+        <v>444.2954221366067</v>
       </c>
       <c r="F18" t="n">
-        <v>319.8636160197386</v>
+        <v>319.8636160197385</v>
       </c>
       <c r="G18" t="n">
         <v>199.803798091603</v>
@@ -5589,13 +5591,13 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I18" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J18" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="K18" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="L18" t="n">
         <v>545.6852136024288</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2414.305903262296</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="C19" t="n">
-        <v>2372.763416564778</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="D19" t="n">
-        <v>2372.763416564778</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="E19" t="n">
-        <v>2372.763416564778</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="F19" t="n">
-        <v>2372.763416564778</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="G19" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="H19" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="I19" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J19" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="K19" t="n">
-        <v>2286.344403774166</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L19" t="n">
-        <v>2450.472043647965</v>
+        <v>308.0818086878571</v>
       </c>
       <c r="M19" t="n">
-        <v>2636.763621986229</v>
+        <v>494.3733870261211</v>
       </c>
       <c r="N19" t="n">
-        <v>2819.953256017438</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O19" t="n">
-        <v>2982.658023059147</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P19" t="n">
-        <v>3102.534188835725</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q19" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R19" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S19" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T19" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U19" t="n">
-        <v>3105.956385205776</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="V19" t="n">
-        <v>3105.956385205776</v>
+        <v>412.1480133083932</v>
       </c>
       <c r="W19" t="n">
-        <v>2822.625983136954</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="X19" t="n">
-        <v>2822.625983136954</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="Y19" t="n">
-        <v>2599.513921953597</v>
+        <v>62.11912770411551</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1913.597208871598</v>
+        <v>560.6455939549082</v>
       </c>
       <c r="C20" t="n">
-        <v>1520.421707374528</v>
+        <v>167.4700924578388</v>
       </c>
       <c r="D20" t="n">
-        <v>1134.980578591196</v>
+        <v>62.1191277041155</v>
       </c>
       <c r="E20" t="n">
-        <v>732.3970537077403</v>
+        <v>62.1191277041155</v>
       </c>
       <c r="F20" t="n">
-        <v>315.502615237718</v>
+        <v>62.1191277041155</v>
       </c>
       <c r="G20" t="n">
-        <v>62.11912770411553</v>
+        <v>62.1191277041155</v>
       </c>
       <c r="H20" t="n">
-        <v>62.11912770411553</v>
+        <v>62.1191277041155</v>
       </c>
       <c r="I20" t="n">
-        <v>62.11912770411553</v>
+        <v>62.1191277041155</v>
       </c>
       <c r="J20" t="n">
         <v>206.7689006129436</v>
@@ -5765,37 +5767,37 @@
         <v>2132.883732040977</v>
       </c>
       <c r="O20" t="n">
-        <v>2572.923332933306</v>
+        <v>2572.923332933305</v>
       </c>
       <c r="P20" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q20" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="R20" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="S20" t="n">
-        <v>3105.956385205776</v>
+        <v>2939.442830146826</v>
       </c>
       <c r="T20" t="n">
-        <v>2882.455782765193</v>
+        <v>2715.942227706243</v>
       </c>
       <c r="U20" t="n">
-        <v>2626.703053199792</v>
+        <v>2460.189498140841</v>
       </c>
       <c r="V20" t="n">
-        <v>2284.59624390331</v>
+        <v>2118.08268884436</v>
       </c>
       <c r="W20" t="n">
-        <v>1913.597208871598</v>
+        <v>1747.083653812647</v>
       </c>
       <c r="X20" t="n">
-        <v>1913.597208871598</v>
+        <v>1357.631048745704</v>
       </c>
       <c r="Y20" t="n">
-        <v>1913.597208871598</v>
+        <v>961.1403396663052</v>
       </c>
     </row>
     <row r="21">
@@ -5814,10 +5816,10 @@
         <v>580.741913025719</v>
       </c>
       <c r="E21" t="n">
-        <v>444.2954221366068</v>
+        <v>444.2954221366067</v>
       </c>
       <c r="F21" t="n">
-        <v>319.8636160197386</v>
+        <v>319.8636160197385</v>
       </c>
       <c r="G21" t="n">
         <v>199.803798091603</v>
@@ -5826,16 +5828,16 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I21" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J21" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="K21" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="L21" t="n">
-        <v>174.7633905351325</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M21" t="n">
         <v>802.5350401618138</v>
@@ -5884,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>740.4540890623113</v>
+        <v>778.3581315543667</v>
       </c>
       <c r="C22" t="n">
-        <v>740.4540890623113</v>
+        <v>608.1530136203559</v>
       </c>
       <c r="D22" t="n">
-        <v>740.4540890623113</v>
+        <v>452.5199005228706</v>
       </c>
       <c r="E22" t="n">
-        <v>706.6503629670233</v>
+        <v>296.9610883820731</v>
       </c>
       <c r="F22" t="n">
-        <v>549.3244281799962</v>
+        <v>139.6351535950461</v>
       </c>
       <c r="G22" t="n">
-        <v>381.0703742794417</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="H22" t="n">
-        <v>225.5918232409357</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="I22" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J22" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="K22" t="n">
         <v>143.9541688140574</v>
       </c>
       <c r="L22" t="n">
-        <v>308.0818086878572</v>
+        <v>308.0818086878571</v>
       </c>
       <c r="M22" t="n">
-        <v>494.3733870261212</v>
+        <v>494.3733870261211</v>
       </c>
       <c r="N22" t="n">
         <v>677.5630210573304</v>
@@ -5953,7 +5955,7 @@
         <v>963.5661502456679</v>
       </c>
       <c r="Y22" t="n">
-        <v>740.4540890623113</v>
+        <v>963.5661502456679</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1123.649858093257</v>
+        <v>2073.376476849992</v>
       </c>
       <c r="C23" t="n">
-        <v>730.4743565961878</v>
+        <v>1680.200975352922</v>
       </c>
       <c r="D23" t="n">
-        <v>730.4743565961878</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E23" t="n">
-        <v>327.8908317127323</v>
+        <v>892.1763216861345</v>
       </c>
       <c r="F23" t="n">
-        <v>327.8908317127323</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G23" t="n">
-        <v>327.8908317127323</v>
+        <v>62.1191277041155</v>
       </c>
       <c r="H23" t="n">
-        <v>62.11912770411553</v>
+        <v>62.1191277041155</v>
       </c>
       <c r="I23" t="n">
-        <v>62.11912770411553</v>
+        <v>62.1191277041155</v>
       </c>
       <c r="J23" t="n">
         <v>206.7689006129436</v>
@@ -6002,37 +6004,37 @@
         <v>2132.883732040977</v>
       </c>
       <c r="O23" t="n">
-        <v>2572.923332933306</v>
+        <v>2572.923332933305</v>
       </c>
       <c r="P23" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q23" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="S23" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="T23" t="n">
-        <v>2882.455782765193</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="U23" t="n">
-        <v>2626.703053199792</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="V23" t="n">
-        <v>2284.59624390331</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="W23" t="n">
-        <v>1913.597208871598</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="X23" t="n">
-        <v>1524.144603804654</v>
+        <v>2870.361931640788</v>
       </c>
       <c r="Y23" t="n">
-        <v>1524.144603804654</v>
+        <v>2473.871222561389</v>
       </c>
     </row>
     <row r="24">
@@ -6051,10 +6053,10 @@
         <v>580.741913025719</v>
       </c>
       <c r="E24" t="n">
-        <v>444.2954221366068</v>
+        <v>444.2954221366067</v>
       </c>
       <c r="F24" t="n">
-        <v>319.8636160197386</v>
+        <v>319.8636160197385</v>
       </c>
       <c r="G24" t="n">
         <v>199.803798091603</v>
@@ -6063,25 +6065,25 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I24" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J24" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="K24" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="L24" t="n">
-        <v>174.7633905351325</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M24" t="n">
-        <v>802.5350401618138</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N24" t="n">
-        <v>1458.313011372373</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O24" t="n">
-        <v>1974.833293963354</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="P24" t="n">
         <v>2380.454662679751</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2463.555983114101</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="C25" t="n">
-        <v>2293.35086518009</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="D25" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="E25" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="F25" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="G25" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="H25" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="I25" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J25" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="K25" t="n">
-        <v>2286.344403774166</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L25" t="n">
-        <v>2450.472043647965</v>
+        <v>308.0818086878571</v>
       </c>
       <c r="M25" t="n">
-        <v>2636.763621986229</v>
+        <v>494.3733870261211</v>
       </c>
       <c r="N25" t="n">
-        <v>2819.953256017438</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O25" t="n">
-        <v>2982.658023059147</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P25" t="n">
-        <v>3102.534188835725</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q25" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R25" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S25" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T25" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U25" t="n">
-        <v>3105.956385205776</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="V25" t="n">
-        <v>3105.956385205776</v>
+        <v>412.1480133083932</v>
       </c>
       <c r="W25" t="n">
-        <v>3105.956385205776</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="X25" t="n">
-        <v>2871.876062988759</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="Y25" t="n">
-        <v>2648.764001805403</v>
+        <v>128.8176112395708</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2535.796644191037</v>
+        <v>2397.459527283501</v>
       </c>
       <c r="C26" t="n">
-        <v>2142.621142693967</v>
+        <v>2004.284025786432</v>
       </c>
       <c r="D26" t="n">
-        <v>1757.180013910635</v>
+        <v>1618.8428970031</v>
       </c>
       <c r="E26" t="n">
-        <v>1354.596489027179</v>
+        <v>1216.259372119644</v>
       </c>
       <c r="F26" t="n">
-        <v>937.702050557157</v>
+        <v>799.3649336496217</v>
       </c>
       <c r="G26" t="n">
-        <v>524.5392950451601</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="H26" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="I26" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J26" t="n">
         <v>206.7689006129436</v>
@@ -6248,28 +6250,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R26" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S26" t="n">
-        <v>2939.442830146827</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T26" t="n">
-        <v>2939.442830146827</v>
+        <v>2797.954272994898</v>
       </c>
       <c r="U26" t="n">
-        <v>2939.442830146827</v>
+        <v>2797.954272994898</v>
       </c>
       <c r="V26" t="n">
-        <v>2939.442830146827</v>
+        <v>2797.954272994898</v>
       </c>
       <c r="W26" t="n">
-        <v>2939.442830146827</v>
+        <v>2797.954272994898</v>
       </c>
       <c r="X26" t="n">
-        <v>2939.442830146827</v>
+        <v>2797.954272994898</v>
       </c>
       <c r="Y26" t="n">
-        <v>2936.291389902433</v>
+        <v>2797.954272994898</v>
       </c>
     </row>
     <row r="27">
@@ -6309,7 +6311,7 @@
         <v>381.858273766342</v>
       </c>
       <c r="L27" t="n">
-        <v>568.1699486069232</v>
+        <v>381.858273766342</v>
       </c>
       <c r="M27" t="n">
         <v>568.1699486069232</v>
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>963.5661502456679</v>
+        <v>239.5922228383523</v>
       </c>
       <c r="C28" t="n">
-        <v>963.5661502456679</v>
+        <v>239.5922228383523</v>
       </c>
       <c r="D28" t="n">
-        <v>862.2091751078208</v>
+        <v>239.5922228383523</v>
       </c>
       <c r="E28" t="n">
-        <v>706.6503629670233</v>
+        <v>239.5922228383523</v>
       </c>
       <c r="F28" t="n">
-        <v>549.3244281799962</v>
+        <v>239.5922228383523</v>
       </c>
       <c r="G28" t="n">
-        <v>381.0703742794417</v>
+        <v>71.3381689377978</v>
       </c>
       <c r="H28" t="n">
-        <v>225.5918232409357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I28" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J28" t="n">
         <v>62.11912770411553</v>
@@ -6409,25 +6411,25 @@
         <v>963.5661502456679</v>
       </c>
       <c r="S28" t="n">
-        <v>963.5661502456679</v>
+        <v>760.7500664282172</v>
       </c>
       <c r="T28" t="n">
-        <v>963.5661502456679</v>
+        <v>525.0310145964513</v>
       </c>
       <c r="U28" t="n">
-        <v>963.5661502456679</v>
+        <v>239.5922228383523</v>
       </c>
       <c r="V28" t="n">
-        <v>963.5661502456679</v>
+        <v>239.5922228383523</v>
       </c>
       <c r="W28" t="n">
-        <v>963.5661502456679</v>
+        <v>239.5922228383523</v>
       </c>
       <c r="X28" t="n">
-        <v>963.5661502456679</v>
+        <v>239.5922228383523</v>
       </c>
       <c r="Y28" t="n">
-        <v>963.5661502456679</v>
+        <v>239.5922228383523</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1206.412481019843</v>
+        <v>2535.796644191037</v>
       </c>
       <c r="C29" t="n">
-        <v>813.2369795227737</v>
+        <v>2142.621142693967</v>
       </c>
       <c r="D29" t="n">
-        <v>813.2369795227737</v>
+        <v>1757.180013910635</v>
       </c>
       <c r="E29" t="n">
-        <v>410.6534546393182</v>
+        <v>1354.596489027179</v>
       </c>
       <c r="F29" t="n">
-        <v>200.4562446116507</v>
+        <v>937.702050557157</v>
       </c>
       <c r="G29" t="n">
-        <v>200.4562446116507</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="H29" t="n">
         <v>200.4562446116507</v>
@@ -6497,16 +6499,16 @@
         <v>3105.956385205776</v>
       </c>
       <c r="V29" t="n">
-        <v>2763.849575909295</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W29" t="n">
-        <v>2392.850540877582</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="X29" t="n">
-        <v>2003.397935810639</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="Y29" t="n">
-        <v>1606.90722673124</v>
+        <v>2936.291389902433</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>861.4851108441464</v>
+        <v>1586.986833370171</v>
       </c>
       <c r="C30" t="n">
-        <v>710.8308804042387</v>
+        <v>1436.332602930263</v>
       </c>
       <c r="D30" t="n">
-        <v>580.741913025719</v>
+        <v>1306.243635551744</v>
       </c>
       <c r="E30" t="n">
-        <v>444.2954221366068</v>
+        <v>1169.797144662632</v>
       </c>
       <c r="F30" t="n">
-        <v>319.8636160197386</v>
+        <v>1045.365338545763</v>
       </c>
       <c r="G30" t="n">
-        <v>199.803798091603</v>
+        <v>925.3055206176277</v>
       </c>
       <c r="H30" t="n">
-        <v>111.5063816922039</v>
+        <v>837.0081042182287</v>
       </c>
       <c r="I30" t="n">
-        <v>62.11912770411553</v>
+        <v>787.6208502301403</v>
       </c>
       <c r="J30" t="n">
-        <v>62.11912770411553</v>
+        <v>787.6208502301403</v>
       </c>
       <c r="K30" t="n">
-        <v>62.11912770411553</v>
+        <v>787.6208502301403</v>
       </c>
       <c r="L30" t="n">
-        <v>545.6852136024288</v>
+        <v>1271.186936128453</v>
       </c>
       <c r="M30" t="n">
-        <v>802.5350401618138</v>
+        <v>1898.958585755135</v>
       </c>
       <c r="N30" t="n">
-        <v>1458.313011372373</v>
+        <v>2554.736556965694</v>
       </c>
       <c r="O30" t="n">
-        <v>1974.833293963354</v>
+        <v>3071.256839556675</v>
       </c>
       <c r="P30" t="n">
-        <v>2380.454662679751</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="Q30" t="n">
-        <v>2380.454662679751</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R30" t="n">
-        <v>2356.537619577816</v>
+        <v>3082.039342103841</v>
       </c>
       <c r="S30" t="n">
-        <v>2221.606942477685</v>
+        <v>2947.10866500371</v>
       </c>
       <c r="T30" t="n">
-        <v>2044.623130676593</v>
+        <v>2770.124853202618</v>
       </c>
       <c r="U30" t="n">
-        <v>1834.559987355235</v>
+        <v>2560.06170988126</v>
       </c>
       <c r="V30" t="n">
-        <v>1612.019985726302</v>
+        <v>2337.521708252327</v>
       </c>
       <c r="W30" t="n">
-        <v>1381.902739859589</v>
+        <v>2107.404462385613</v>
       </c>
       <c r="X30" t="n">
-        <v>1192.595662209601</v>
+        <v>1918.097384735625</v>
       </c>
       <c r="Y30" t="n">
-        <v>1013.281445285108</v>
+        <v>1738.783167811132</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2414.305903262296</v>
+        <v>446.1554259598287</v>
       </c>
       <c r="C31" t="n">
-        <v>2244.100785328285</v>
+        <v>275.9503080258179</v>
       </c>
       <c r="D31" t="n">
-        <v>2204.509362664224</v>
+        <v>275.9503080258179</v>
       </c>
       <c r="E31" t="n">
-        <v>2204.509362664224</v>
+        <v>275.9503080258179</v>
       </c>
       <c r="F31" t="n">
-        <v>2204.509362664224</v>
+        <v>275.9503080258179</v>
       </c>
       <c r="G31" t="n">
-        <v>2204.509362664224</v>
+        <v>275.9503080258179</v>
       </c>
       <c r="H31" t="n">
-        <v>2204.509362664224</v>
+        <v>225.5918232409357</v>
       </c>
       <c r="I31" t="n">
-        <v>2204.509362664224</v>
+        <v>92.49739787801357</v>
       </c>
       <c r="J31" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K31" t="n">
-        <v>2286.344403774166</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L31" t="n">
-        <v>2450.472043647965</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M31" t="n">
-        <v>2636.763621986229</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N31" t="n">
-        <v>2819.953256017438</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O31" t="n">
-        <v>2982.658023059147</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P31" t="n">
-        <v>3102.534188835725</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q31" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R31" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S31" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T31" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U31" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="V31" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="W31" t="n">
-        <v>2822.625983136954</v>
+        <v>680.2357481768456</v>
       </c>
       <c r="X31" t="n">
-        <v>2822.625983136954</v>
+        <v>446.1554259598287</v>
       </c>
       <c r="Y31" t="n">
-        <v>2599.513921953597</v>
+        <v>446.1554259598287</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2535.796644191037</v>
+        <v>1919.518325348037</v>
       </c>
       <c r="C32" t="n">
-        <v>2142.621142693967</v>
+        <v>1526.342823850968</v>
       </c>
       <c r="D32" t="n">
-        <v>1757.180013910635</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E32" t="n">
-        <v>1354.596489027179</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F32" t="n">
-        <v>937.702050557157</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G32" t="n">
-        <v>524.5392950451601</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H32" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I32" t="n">
         <v>62.11912770411553</v>
@@ -6725,25 +6727,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S32" t="n">
-        <v>2939.442830146827</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T32" t="n">
-        <v>2715.942227706244</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U32" t="n">
-        <v>2715.942227706244</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V32" t="n">
-        <v>2715.942227706244</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W32" t="n">
-        <v>2715.942227706244</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="X32" t="n">
-        <v>2715.942227706244</v>
+        <v>2716.503780138833</v>
       </c>
       <c r="Y32" t="n">
-        <v>2715.942227706244</v>
+        <v>2320.013071059434</v>
       </c>
     </row>
     <row r="33">
@@ -6832,10 +6834,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>387.9573587356116</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C34" t="n">
-        <v>217.7522408016008</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D34" t="n">
         <v>62.11912770411553</v>
@@ -6886,22 +6888,22 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T34" t="n">
-        <v>963.5661502456679</v>
+        <v>727.847098413902</v>
       </c>
       <c r="U34" t="n">
-        <v>963.5661502456679</v>
+        <v>442.408306655803</v>
       </c>
       <c r="V34" t="n">
-        <v>963.5661502456679</v>
+        <v>176.4289614766272</v>
       </c>
       <c r="W34" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X34" t="n">
-        <v>796.2774386102695</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y34" t="n">
-        <v>573.1653774269129</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2535.796644191037</v>
+        <v>1402.400757957813</v>
       </c>
       <c r="C35" t="n">
-        <v>2142.621142693967</v>
+        <v>1402.400757957813</v>
       </c>
       <c r="D35" t="n">
-        <v>1757.180013910635</v>
+        <v>1402.400757957813</v>
       </c>
       <c r="E35" t="n">
         <v>1354.596489027179</v>
@@ -6932,7 +6934,7 @@
         <v>200.4562446116507</v>
       </c>
       <c r="I35" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J35" t="n">
         <v>206.7689006129436</v>
@@ -6959,28 +6961,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R35" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S35" t="n">
-        <v>3105.956385205776</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T35" t="n">
-        <v>3105.956385205776</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="U35" t="n">
-        <v>3105.956385205776</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="V35" t="n">
-        <v>3105.956385205776</v>
+        <v>2559.343107135867</v>
       </c>
       <c r="W35" t="n">
-        <v>3105.956385205776</v>
+        <v>2188.344072104155</v>
       </c>
       <c r="X35" t="n">
-        <v>3105.956385205776</v>
+        <v>1798.891467037211</v>
       </c>
       <c r="Y35" t="n">
-        <v>2936.291389902433</v>
+        <v>1402.400757957813</v>
       </c>
     </row>
     <row r="36">
@@ -7020,16 +7022,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="L36" t="n">
-        <v>174.7633905351325</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M36" t="n">
-        <v>802.5350401618138</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N36" t="n">
-        <v>1458.313011372373</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O36" t="n">
-        <v>1974.833293963354</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="P36" t="n">
         <v>2380.454662679751</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C37" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D37" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E37" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F37" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G37" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H37" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I37" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K37" t="n">
-        <v>2286.344403774166</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L37" t="n">
-        <v>2450.472043647965</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M37" t="n">
-        <v>2636.763621986229</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N37" t="n">
-        <v>2819.953256017438</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O37" t="n">
-        <v>2982.658023059147</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P37" t="n">
-        <v>3102.534188835725</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q37" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R37" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S37" t="n">
-        <v>3105.956385205776</v>
+        <v>760.7500664282172</v>
       </c>
       <c r="T37" t="n">
-        <v>3105.956385205776</v>
+        <v>525.0310145964513</v>
       </c>
       <c r="U37" t="n">
-        <v>2987.899432129239</v>
+        <v>239.5922228383523</v>
       </c>
       <c r="V37" t="n">
-        <v>2721.920086950063</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="W37" t="n">
-        <v>2438.589684881241</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X37" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y37" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1725.726704223945</v>
+        <v>522.652680240431</v>
       </c>
       <c r="C38" t="n">
-        <v>1725.726704223945</v>
+        <v>129.4771787433615</v>
       </c>
       <c r="D38" t="n">
-        <v>1340.285575440613</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="E38" t="n">
-        <v>937.702050557157</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="F38" t="n">
-        <v>937.702050557157</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="G38" t="n">
-        <v>524.5392950451601</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="H38" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="I38" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J38" t="n">
         <v>206.7689006129436</v>
@@ -7196,28 +7198,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R38" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S38" t="n">
-        <v>3105.956385205776</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T38" t="n">
-        <v>3105.956385205776</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="U38" t="n">
-        <v>2850.203655640375</v>
+        <v>2422.196584426364</v>
       </c>
       <c r="V38" t="n">
-        <v>2508.096846343894</v>
+        <v>2080.089775129883</v>
       </c>
       <c r="W38" t="n">
-        <v>2137.097811312181</v>
+        <v>1709.09074009817</v>
       </c>
       <c r="X38" t="n">
-        <v>1747.645206245238</v>
+        <v>1319.638135031227</v>
       </c>
       <c r="Y38" t="n">
-        <v>1747.645206245238</v>
+        <v>923.1474259518279</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1586.986833370171</v>
+        <v>861.4851108441464</v>
       </c>
       <c r="C39" t="n">
-        <v>1436.332602930263</v>
+        <v>710.8308804042387</v>
       </c>
       <c r="D39" t="n">
-        <v>1306.243635551744</v>
+        <v>580.741913025719</v>
       </c>
       <c r="E39" t="n">
-        <v>1169.797144662632</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F39" t="n">
-        <v>1045.365338545763</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G39" t="n">
-        <v>925.3055206176277</v>
+        <v>199.803798091603</v>
       </c>
       <c r="H39" t="n">
-        <v>837.0081042182287</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I39" t="n">
-        <v>787.6208502301403</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>787.6208502301403</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K39" t="n">
-        <v>787.6208502301403</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L39" t="n">
-        <v>1271.186936128453</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M39" t="n">
-        <v>1898.958585755135</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N39" t="n">
-        <v>2183.814733898398</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O39" t="n">
-        <v>2700.335016489379</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P39" t="n">
-        <v>3105.956385205776</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q39" t="n">
-        <v>3105.956385205776</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="R39" t="n">
-        <v>3082.039342103841</v>
+        <v>2356.537619577816</v>
       </c>
       <c r="S39" t="n">
-        <v>2947.10866500371</v>
+        <v>2221.606942477685</v>
       </c>
       <c r="T39" t="n">
-        <v>2770.124853202618</v>
+        <v>2044.623130676593</v>
       </c>
       <c r="U39" t="n">
-        <v>2560.06170988126</v>
+        <v>1834.559987355235</v>
       </c>
       <c r="V39" t="n">
-        <v>2337.521708252327</v>
+        <v>1612.019985726302</v>
       </c>
       <c r="W39" t="n">
-        <v>2107.404462385613</v>
+        <v>1381.902739859589</v>
       </c>
       <c r="X39" t="n">
-        <v>1918.097384735625</v>
+        <v>1192.595662209601</v>
       </c>
       <c r="Y39" t="n">
-        <v>1738.783167811132</v>
+        <v>1013.281445285108</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2685.648163492603</v>
+        <v>740.4540890623113</v>
       </c>
       <c r="C40" t="n">
-        <v>2685.648163492603</v>
+        <v>698.8910416299798</v>
       </c>
       <c r="D40" t="n">
-        <v>2685.648163492603</v>
+        <v>543.2579285324946</v>
       </c>
       <c r="E40" t="n">
-        <v>2530.089351351805</v>
+        <v>387.699116391697</v>
       </c>
       <c r="F40" t="n">
-        <v>2372.763416564778</v>
+        <v>230.37318160467</v>
       </c>
       <c r="G40" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H40" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I40" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
-        <v>2286.344403774166</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L40" t="n">
-        <v>2450.472043647965</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M40" t="n">
-        <v>2636.763621986229</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N40" t="n">
-        <v>2819.953256017438</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O40" t="n">
-        <v>2982.658023059147</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P40" t="n">
-        <v>3102.534188835725</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q40" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R40" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S40" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T40" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U40" t="n">
-        <v>2820.517593447677</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="V40" t="n">
-        <v>2685.648163492603</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="W40" t="n">
-        <v>2685.648163492603</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="X40" t="n">
-        <v>2685.648163492603</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="Y40" t="n">
-        <v>2685.648163492603</v>
+        <v>740.4540890623113</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2073.376476849992</v>
+        <v>1402.400757957812</v>
       </c>
       <c r="C41" t="n">
-        <v>1680.200975352922</v>
+        <v>1402.400757957812</v>
       </c>
       <c r="D41" t="n">
-        <v>1294.75984656959</v>
+        <v>1402.400757957812</v>
       </c>
       <c r="E41" t="n">
-        <v>892.1763216861347</v>
+        <v>999.8172330743562</v>
       </c>
       <c r="F41" t="n">
-        <v>475.2818832161124</v>
+        <v>582.9227946043339</v>
       </c>
       <c r="G41" t="n">
-        <v>62.11912770411553</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="H41" t="n">
-        <v>62.11912770411553</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="I41" t="n">
-        <v>62.11912770411553</v>
+        <v>62.1191277041155</v>
       </c>
       <c r="J41" t="n">
         <v>206.7689006129436</v>
@@ -7424,37 +7426,37 @@
         <v>2132.883732040977</v>
       </c>
       <c r="O41" t="n">
-        <v>2572.923332933306</v>
+        <v>2572.923332933305</v>
       </c>
       <c r="P41" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q41" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="R41" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491297</v>
       </c>
       <c r="S41" t="n">
-        <v>3105.956385205776</v>
+        <v>2901.449916432348</v>
       </c>
       <c r="T41" t="n">
-        <v>3105.956385205776</v>
+        <v>2901.449916432348</v>
       </c>
       <c r="U41" t="n">
-        <v>3105.956385205776</v>
+        <v>2901.449916432348</v>
       </c>
       <c r="V41" t="n">
-        <v>3105.956385205776</v>
+        <v>2559.343107135866</v>
       </c>
       <c r="W41" t="n">
-        <v>3105.956385205776</v>
+        <v>2188.344072104154</v>
       </c>
       <c r="X41" t="n">
-        <v>2870.361931640788</v>
+        <v>1798.891467037211</v>
       </c>
       <c r="Y41" t="n">
-        <v>2473.871222561389</v>
+        <v>1402.400757957812</v>
       </c>
     </row>
     <row r="42">
@@ -7473,10 +7475,10 @@
         <v>580.741913025719</v>
       </c>
       <c r="E42" t="n">
-        <v>444.2954221366068</v>
+        <v>444.2954221366067</v>
       </c>
       <c r="F42" t="n">
-        <v>319.8636160197386</v>
+        <v>319.8636160197385</v>
       </c>
       <c r="G42" t="n">
         <v>199.803798091603</v>
@@ -7485,25 +7487,25 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I42" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J42" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="K42" t="n">
-        <v>62.11912770411553</v>
+        <v>381.8582737663419</v>
       </c>
       <c r="L42" t="n">
-        <v>545.6852136024288</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M42" t="n">
-        <v>802.5350401618138</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="N42" t="n">
-        <v>1458.313011372373</v>
+        <v>2148.973980501895</v>
       </c>
       <c r="O42" t="n">
-        <v>1974.833293963354</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P42" t="n">
         <v>2380.454662679751</v>
@@ -7543,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.0359521250365</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="C43" t="n">
-        <v>189.0359521250365</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="D43" t="n">
-        <v>189.0359521250365</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="E43" t="n">
-        <v>189.0359521250365</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="F43" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="G43" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="H43" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="I43" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J43" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="K43" t="n">
         <v>143.9541688140574</v>
       </c>
       <c r="L43" t="n">
-        <v>308.0818086878572</v>
+        <v>308.0818086878571</v>
       </c>
       <c r="M43" t="n">
-        <v>494.3733870261212</v>
+        <v>494.3733870261211</v>
       </c>
       <c r="N43" t="n">
         <v>677.5630210573304</v>
@@ -7597,22 +7599,22 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T43" t="n">
-        <v>963.5661502456679</v>
+        <v>727.847098413902</v>
       </c>
       <c r="U43" t="n">
-        <v>678.1273584875689</v>
+        <v>442.408306655803</v>
       </c>
       <c r="V43" t="n">
-        <v>412.1480133083932</v>
+        <v>176.4289614766272</v>
       </c>
       <c r="W43" t="n">
-        <v>412.1480133083932</v>
+        <v>176.4289614766272</v>
       </c>
       <c r="X43" t="n">
-        <v>412.1480133083932</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="Y43" t="n">
-        <v>189.0359521250365</v>
+        <v>62.11912770411551</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2150.355515407704</v>
+        <v>1618.8428970031</v>
       </c>
       <c r="C44" t="n">
-        <v>1757.180013910635</v>
+        <v>1618.8428970031</v>
       </c>
       <c r="D44" t="n">
-        <v>1757.180013910635</v>
+        <v>1618.8428970031</v>
       </c>
       <c r="E44" t="n">
-        <v>1354.596489027179</v>
+        <v>1216.259372119644</v>
       </c>
       <c r="F44" t="n">
-        <v>937.702050557157</v>
+        <v>799.3649336496217</v>
       </c>
       <c r="G44" t="n">
-        <v>524.5392950451601</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="H44" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7673,25 +7675,25 @@
         <v>3067.963471491298</v>
       </c>
       <c r="S44" t="n">
-        <v>3067.963471491298</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T44" t="n">
-        <v>3067.963471491298</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="U44" t="n">
-        <v>3067.963471491298</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="V44" t="n">
-        <v>3067.963471491298</v>
+        <v>2415.828351793895</v>
       </c>
       <c r="W44" t="n">
-        <v>3067.963471491298</v>
+        <v>2415.828351793895</v>
       </c>
       <c r="X44" t="n">
-        <v>2678.510866424355</v>
+        <v>2415.828351793895</v>
       </c>
       <c r="Y44" t="n">
-        <v>2282.020157344956</v>
+        <v>2019.337642714496</v>
       </c>
     </row>
     <row r="45">
@@ -7728,13 +7730,13 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K45" t="n">
-        <v>62.11912770411553</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L45" t="n">
-        <v>62.11912770411553</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M45" t="n">
-        <v>568.1699486069232</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="N45" t="n">
         <v>1223.947919817482</v>
@@ -7780,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>869.0961595639906</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C46" t="n">
-        <v>698.8910416299798</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D46" t="n">
-        <v>543.2579285324946</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E46" t="n">
-        <v>387.699116391697</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F46" t="n">
-        <v>230.37318160467</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G46" t="n">
         <v>62.11912770411553</v>
@@ -7837,19 +7839,19 @@
         <v>963.5661502456679</v>
       </c>
       <c r="U46" t="n">
-        <v>963.5661502456679</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="V46" t="n">
-        <v>963.5661502456679</v>
+        <v>412.1480133083932</v>
       </c>
       <c r="W46" t="n">
-        <v>963.5661502456679</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="X46" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y46" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
   </sheetData>
@@ -7988,7 +7990,7 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826954</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
@@ -7997,7 +7999,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
-        <v>331.2113854294513</v>
+        <v>331.2113854294514</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8064,10 +8066,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>340.2745745069888</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N3" t="n">
-        <v>85.37211285416666</v>
+        <v>569.9919810238538</v>
       </c>
       <c r="O3" t="n">
         <v>614.4252180716981</v>
@@ -8076,7 +8078,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8295,25 +8297,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L6" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>92.38712204931191</v>
+        <v>647.2923877624991</v>
       </c>
       <c r="N6" t="n">
-        <v>333.2595653118431</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O6" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P6" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q6" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8532,16 +8534,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K9" t="n">
-        <v>89.59693533333335</v>
+        <v>112.3087888732267</v>
       </c>
       <c r="L9" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N9" t="n">
-        <v>136.3731801151487</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
@@ -8708,7 +8710,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q11" t="n">
-        <v>331.2113854294513</v>
+        <v>331.2113854294514</v>
       </c>
       <c r="R11" t="n">
         <v>102.5176150018526</v>
@@ -8766,28 +8768,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N12" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9006,13 +9008,13 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M15" t="n">
-        <v>351.8313913012159</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
         <v>747.7741039759435</v>
@@ -9021,7 +9023,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>496.801919078302</v>
+        <v>287.6151683397065</v>
       </c>
       <c r="Q15" t="n">
         <v>90.98815315591399</v>
@@ -9161,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>263.7907196684351</v>
+        <v>263.7907196684342</v>
       </c>
       <c r="K17" t="n">
         <v>505.666843611017</v>
@@ -9483,10 +9485,10 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L21" t="n">
-        <v>203.8424305246122</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>726.4998994499999</v>
+        <v>351.8313913012159</v>
       </c>
       <c r="N21" t="n">
         <v>747.7741039759435</v>
@@ -9720,7 +9722,7 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L24" t="n">
-        <v>203.8424305246122</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
         <v>726.4998994499999</v>
@@ -9732,7 +9734,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>496.801919078302</v>
+        <v>122.133410929518</v>
       </c>
       <c r="Q24" t="n">
         <v>90.98815315591399</v>
@@ -9957,10 +9959,10 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
-        <v>278.2539578070002</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M27" t="n">
-        <v>92.38712204931191</v>
+        <v>280.5807329993939</v>
       </c>
       <c r="N27" t="n">
         <v>747.7741039759435</v>
@@ -10197,7 +10199,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>351.8313913012159</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
         <v>747.7741039759435</v>
@@ -10206,7 +10208,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
-        <v>496.801919078302</v>
+        <v>122.1334109295184</v>
       </c>
       <c r="Q30" t="n">
         <v>90.98815315591399</v>
@@ -10668,7 +10670,7 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L36" t="n">
-        <v>203.8424305246122</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
         <v>726.4998994499999</v>
@@ -10680,7 +10682,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>496.801919078302</v>
+        <v>122.133410929518</v>
       </c>
       <c r="Q36" t="n">
         <v>90.98815315591399</v>
@@ -10841,7 +10843,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q38" t="n">
-        <v>331.2113854294514</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R38" t="n">
         <v>102.5176150018526</v>
@@ -10911,10 +10913,10 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
-        <v>373.1055958271601</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O39" t="n">
-        <v>614.4252180716981</v>
+        <v>239.756709922914</v>
       </c>
       <c r="P39" t="n">
         <v>496.801919078302</v>
@@ -11139,22 +11141,22 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K42" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>351.8313913012159</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N42" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O42" t="n">
-        <v>614.4252180716981</v>
+        <v>326.5064297756122</v>
       </c>
       <c r="P42" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q42" t="n">
         <v>90.98815315591399</v>
@@ -11315,7 +11317,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q44" t="n">
-        <v>331.2113854294514</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R44" t="n">
         <v>102.5176150018526</v>
@@ -11376,16 +11378,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K45" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>603.5495674056833</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N45" t="n">
-        <v>747.7741039759435</v>
+        <v>447.5171231095475</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
@@ -22544,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>255.0292465309249</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22553,16 +22555,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -22601,19 +22603,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>112.440842880952</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -22708,25 +22710,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>53.73337658004174</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22750,19 +22752,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>210.2831670182383</v>
       </c>
       <c r="W4" t="n">
         <v>280.4970980481341</v>
@@ -22787,13 +22789,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>314.9022469666454</v>
       </c>
       <c r="E5" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
         <v>409.0311279568768</v>
@@ -22829,13 +22831,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>157.8772922848788</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -22844,7 +22846,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -22987,10 +22989,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -22999,10 +23001,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>210.2831670182383</v>
       </c>
       <c r="W7" t="n">
-        <v>167.3303626133476</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
         <v>231.7395189948467</v>
@@ -23021,10 +23023,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -23036,7 +23038,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
         <v>136.9537457384598</v>
@@ -23066,7 +23068,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -23078,13 +23080,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>301.9317203218184</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>303.1085315101062</v>
       </c>
       <c r="Y8" t="n">
         <v>392.5258019886049</v>
@@ -23224,10 +23226,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>9.49524403896217</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -23236,7 +23238,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>210.2831670182383</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>280.4970980481341</v>
@@ -23270,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,13 +23305,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>221.2655964161775</v>
+        <v>167.015442531929</v>
       </c>
       <c r="U11" t="n">
         <v>253.1952022697474</v>
@@ -23321,10 +23323,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X11" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>224.5574566382954</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,31 +23415,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>168.5030667546707</v>
+        <v>78.61842587084085</v>
       </c>
       <c r="D13" t="n">
-        <v>53.73337658004174</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23479,10 +23481,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X13" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23498,16 +23500,16 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>320.8422199291742</v>
@@ -23552,10 +23554,10 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V14" t="n">
-        <v>36.53773382964818</v>
+        <v>109.4185936949529</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23671,10 +23673,10 @@
         <v>153.923765528121</v>
       </c>
       <c r="I16" t="n">
-        <v>108.8015838723062</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23698,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>231.7395189948467</v>
@@ -23732,22 +23734,22 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F17" t="n">
-        <v>7.927505116668726</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>20.09794835080487</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23780,25 +23782,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X17" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23887,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C19" t="n">
-        <v>127.3760049241282</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D19" t="n">
         <v>154.0767819665104</v>
@@ -23902,7 +23904,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H19" t="n">
         <v>153.923765528121</v>
@@ -23944,19 +23946,19 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U19" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>231.7395189948467</v>
+        <v>165.708020294746</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="20">
@@ -23966,22 +23968,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>277.2892623893129</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
-        <v>158.1814752986104</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H20" t="n">
         <v>320.8422199291742</v>
@@ -24017,7 +24019,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24032,10 +24034,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24124,31 +24126,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>120.5375351850544</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>89.83064772952766</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="23">
@@ -24209,19 +24211,19 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>57.72823296064365</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I23" t="n">
         <v>136.9537457384598</v>
@@ -24257,22 +24259,22 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>152.3195699869358</v>
       </c>
       <c r="Y23" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24361,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>102.4715680545699</v>
       </c>
       <c r="D25" t="n">
-        <v>66.12369447580254</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E25" t="n">
         <v>154.0032240193895</v>
@@ -24418,19 +24420,19 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U25" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="26">
@@ -24461,7 +24463,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24488,13 +24490,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>221.2655964161775</v>
+        <v>118.8049094131012</v>
       </c>
       <c r="U26" t="n">
         <v>253.1952022697474</v>
@@ -24509,7 +24511,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
-        <v>389.4058761466552</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="27">
@@ -24604,25 +24606,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D28" t="n">
-        <v>53.73337658004174</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7969147067755</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24649,13 +24651,13 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S28" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>263.319551727384</v>
@@ -24683,19 +24685,19 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>204.6302561579312</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24737,16 +24739,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>224.5574566382954</v>
       </c>
     </row>
     <row r="30">
@@ -24835,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>114.8812735290894</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E31" t="n">
         <v>154.0032240193895</v>
@@ -24853,13 +24855,13 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H31" t="n">
-        <v>153.923765528121</v>
+        <v>104.0688655910876</v>
       </c>
       <c r="I31" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24901,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="32">
@@ -24914,13 +24916,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>218.1456705742281</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>152.3195699869353</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24932,10 +24934,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24965,10 +24967,10 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U32" t="n">
         <v>253.1952022697474</v>
@@ -24980,10 +24982,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X32" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25072,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E34" t="n">
         <v>154.0032240193895</v>
@@ -25126,22 +25128,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T34" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>280.4970980481341</v>
+        <v>167.3303626133476</v>
       </c>
       <c r="X34" t="n">
-        <v>66.12369447580232</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="35">
@@ -25151,16 +25153,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>351.231463393294</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25199,10 +25201,10 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>221.2655964161775</v>
@@ -25211,16 +25213,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V35" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>224.5574566382954</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25360,22 +25362,22 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>165.708020294746</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>87.62118754448966</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y37" t="n">
         <v>220.8809405715231</v>
@@ -25388,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>374.790481253203</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>314.9022469666454</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F38" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,13 +25438,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25457,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25549,10 +25551,10 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C40" t="n">
-        <v>168.5030667546707</v>
+        <v>127.3556497966625</v>
       </c>
       <c r="D40" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25603,10 +25605,10 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V40" t="n">
-        <v>129.7988160718604</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W40" t="n">
         <v>280.4970980481341</v>
@@ -25615,7 +25617,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y40" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25625,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25640,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>351.2314633932947</v>
       </c>
       <c r="H41" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,10 +25675,10 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>221.2655964161775</v>
@@ -25685,13 +25687,13 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V41" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>152.3195699869349</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25795,7 +25797,7 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F43" t="n">
-        <v>30.105019262445</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G43" t="n">
         <v>166.5715133615489</v>
@@ -25837,7 +25839,7 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T43" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25849,10 +25851,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
-        <v>231.7395189948467</v>
+        <v>118.5727835600601</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="44">
@@ -25862,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>266.141802736404</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
         <v>381.5867174954989</v>
@@ -25883,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V44" t="n">
-        <v>338.6857412035168</v>
+        <v>79.18598862762542</v>
       </c>
       <c r="W44" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26020,22 +26022,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>89.83064772952768</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H46" t="n">
         <v>153.923765528121</v>
@@ -26077,16 +26079,16 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U46" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>231.7395189948467</v>
+        <v>165.708020294746</v>
       </c>
       <c r="Y46" t="n">
         <v>220.8809405715231</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>674280.1770062416</v>
+        <v>674280.1770062414</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>674280.1770062414</v>
+        <v>674280.1770062416</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>674280.1770062414</v>
+        <v>674280.1770062412</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>674280.1770062416</v>
+        <v>674280.1770062415</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>674280.1770062415</v>
+        <v>674280.1770062412</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>674280.1770062415</v>
+        <v>674280.1770062414</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>674280.1770062415</v>
+        <v>674280.1770062414</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>674280.1770062412</v>
+        <v>674280.1770062414</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>674280.1770062415</v>
+        <v>674280.1770062414</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>674280.1770062416</v>
+        <v>674280.1770062415</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>674280.1770062414</v>
+        <v>674280.1770062415</v>
       </c>
     </row>
   </sheetData>
@@ -26311,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>216278.5473416248</v>
+      </c>
+      <c r="C2" t="n">
         <v>216278.5473416247</v>
-      </c>
-      <c r="C2" t="n">
-        <v>216278.5473416248</v>
       </c>
       <c r="D2" t="n">
         <v>216278.5473416248</v>
@@ -26326,19 +26328,19 @@
         <v>216278.5473416247</v>
       </c>
       <c r="G2" t="n">
-        <v>216278.5473416248</v>
+        <v>216278.5473416247</v>
       </c>
       <c r="H2" t="n">
         <v>216278.5473416247</v>
       </c>
       <c r="I2" t="n">
-        <v>216278.5473416248</v>
+        <v>216278.5473416247</v>
       </c>
       <c r="J2" t="n">
-        <v>216278.5473416248</v>
+        <v>216278.5473416247</v>
       </c>
       <c r="K2" t="n">
-        <v>216278.5473416248</v>
+        <v>216278.5473416247</v>
       </c>
       <c r="L2" t="n">
         <v>216278.5473416248</v>
@@ -26350,10 +26352,10 @@
         <v>216278.5473416248</v>
       </c>
       <c r="O2" t="n">
+        <v>216278.5473416247</v>
+      </c>
+      <c r="P2" t="n">
         <v>216278.5473416248</v>
-      </c>
-      <c r="P2" t="n">
-        <v>216278.5473416247</v>
       </c>
     </row>
     <row r="3">
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>203163.713112695</v>
+        <v>203163.7131126951</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26418,46 +26420,46 @@
         <v>548.8206074562066</v>
       </c>
       <c r="C4" t="n">
-        <v>548.8206074562065</v>
+        <v>548.8206074562066</v>
       </c>
       <c r="D4" t="n">
-        <v>548.8206074562065</v>
+        <v>548.8206074562066</v>
       </c>
       <c r="E4" t="n">
         <v>548.8206074562065</v>
       </c>
       <c r="F4" t="n">
-        <v>548.8206074562065</v>
+        <v>548.8206074562066</v>
       </c>
       <c r="G4" t="n">
         <v>548.8206074562065</v>
       </c>
       <c r="H4" t="n">
-        <v>548.8206074562065</v>
+        <v>548.8206074562066</v>
       </c>
       <c r="I4" t="n">
-        <v>548.8206074562065</v>
+        <v>548.8206074562066</v>
       </c>
       <c r="J4" t="n">
-        <v>548.8206074562065</v>
+        <v>548.8206074562066</v>
       </c>
       <c r="K4" t="n">
         <v>548.8206074562066</v>
       </c>
       <c r="L4" t="n">
-        <v>548.8206074562065</v>
+        <v>548.8206074562066</v>
       </c>
       <c r="M4" t="n">
-        <v>548.8206074562065</v>
+        <v>548.8206074562066</v>
       </c>
       <c r="N4" t="n">
         <v>548.8206074562066</v>
       </c>
       <c r="O4" t="n">
-        <v>548.8206074562065</v>
+        <v>548.8206074562066</v>
       </c>
       <c r="P4" t="n">
-        <v>548.8206074562065</v>
+        <v>548.8206074562066</v>
       </c>
     </row>
     <row r="5">
@@ -26482,13 +26484,13 @@
         <v>47210.5370551278</v>
       </c>
       <c r="G5" t="n">
-        <v>47210.5370551278</v>
+        <v>47210.53705512778</v>
       </c>
       <c r="H5" t="n">
-        <v>47210.5370551278</v>
+        <v>47210.53705512778</v>
       </c>
       <c r="I5" t="n">
-        <v>47210.5370551278</v>
+        <v>47210.53705512778</v>
       </c>
       <c r="J5" t="n">
         <v>47210.5370551278</v>
@@ -26506,7 +26508,7 @@
         <v>47210.5370551278</v>
       </c>
       <c r="O5" t="n">
-        <v>47210.5370551278</v>
+        <v>47210.53705512778</v>
       </c>
       <c r="P5" t="n">
         <v>47210.5370551278</v>
@@ -26519,10 +26521,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-125327.7657407881</v>
+        <v>-125327.765740788</v>
       </c>
       <c r="C6" t="n">
-        <v>134891.5896790408</v>
+        <v>134891.5896790407</v>
       </c>
       <c r="D6" t="n">
         <v>134891.5896790408</v>
@@ -26534,19 +26536,19 @@
         <v>168519.1896790407</v>
       </c>
       <c r="G6" t="n">
-        <v>168519.1896790408</v>
+        <v>168519.1896790407</v>
       </c>
       <c r="H6" t="n">
         <v>168519.1896790407</v>
       </c>
       <c r="I6" t="n">
-        <v>168519.1896790408</v>
+        <v>168519.1896790407</v>
       </c>
       <c r="J6" t="n">
-        <v>-34644.52343365426</v>
+        <v>-34644.52343365434</v>
       </c>
       <c r="K6" t="n">
-        <v>168519.1896790408</v>
+        <v>168519.1896790407</v>
       </c>
       <c r="L6" t="n">
         <v>168519.1896790408</v>
@@ -26558,10 +26560,10 @@
         <v>168519.1896790408</v>
       </c>
       <c r="O6" t="n">
+        <v>168519.1896790407</v>
+      </c>
+      <c r="P6" t="n">
         <v>168519.1896790408</v>
-      </c>
-      <c r="P6" t="n">
-        <v>168519.1896790407</v>
       </c>
     </row>
   </sheetData>
@@ -26802,13 +26804,13 @@
         <v>776.4890963014441</v>
       </c>
       <c r="G4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014439</v>
       </c>
       <c r="H4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014439</v>
       </c>
       <c r="I4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014439</v>
       </c>
       <c r="J4" t="n">
         <v>776.4890963014441</v>
@@ -26826,7 +26828,7 @@
         <v>776.4890963014441</v>
       </c>
       <c r="O4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014439</v>
       </c>
       <c r="P4" t="n">
         <v>776.4890963014441</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014443</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -34708,7 +34710,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449113</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
@@ -34717,7 +34719,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34784,10 +34786,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>247.8874524576769</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>484.6198681696871</v>
       </c>
       <c r="O3" t="n">
         <v>521.7376591828091</v>
@@ -34796,7 +34798,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35015,25 +35017,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>554.9052657131872</v>
       </c>
       <c r="N6" t="n">
-        <v>247.8874524576764</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O6" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P6" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35182,7 +35184,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N8" t="n">
-        <v>533.1427107449113</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
         <v>444.4844453457863</v>
@@ -35252,16 +35254,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>22.71185353989334</v>
       </c>
       <c r="L9" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>51.00106726098203</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
@@ -35428,7 +35430,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q11" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N12" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35726,13 +35728,13 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>259.444269251904</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
         <v>662.4019911217769</v>
@@ -35741,7 +35743,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>409.7185542589873</v>
+        <v>200.5318035203919</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35881,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>146.110881726089</v>
+        <v>146.1108817260881</v>
       </c>
       <c r="K17" t="n">
         <v>362.6084404317796</v>
@@ -36203,10 +36205,10 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>113.782083667694</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>634.1127774006881</v>
+        <v>259.444269251904</v>
       </c>
       <c r="N21" t="n">
         <v>662.4019911217769</v>
@@ -36440,7 +36442,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>113.782083667694</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
         <v>634.1127774006881</v>
@@ -36452,7 +36454,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
-        <v>409.7185542589873</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36677,10 +36679,10 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
         <v>188.193610950082</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>662.4019911217769</v>
@@ -36850,7 +36852,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q29" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36917,7 +36919,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>259.444269251904</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
         <v>662.4019911217769</v>
@@ -36926,7 +36928,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P30" t="n">
-        <v>409.7185542589873</v>
+        <v>35.0500461102038</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37388,7 +37390,7 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>113.782083667694</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
         <v>634.1127774006881</v>
@@ -37400,7 +37402,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
-        <v>409.7185542589873</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37561,7 +37563,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q38" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37631,10 +37633,10 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N39" t="n">
-        <v>287.7334829729934</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O39" t="n">
-        <v>521.7376591828091</v>
+        <v>147.0691510340251</v>
       </c>
       <c r="P39" t="n">
         <v>409.7185542589873</v>
@@ -37859,22 +37861,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>259.444269251904</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N42" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O42" t="n">
-        <v>521.7376591828091</v>
+        <v>233.8188708867233</v>
       </c>
       <c r="P42" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38035,7 +38037,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q44" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38096,16 +38098,16 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>511.1624453563714</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>662.4019911217769</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_0_17.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_0_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>968453.4201130312</v>
+        <v>963919.5969435333</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7796784.575617741</v>
+        <v>7796784.57561774</v>
       </c>
     </row>
     <row r="11">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>141.460551723358</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>398.5576896346209</v>
@@ -673,10 +673,10 @@
         <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>271.0092307840453</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -712,22 +712,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>53.03638470914571</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>53.03638470914571</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -901,19 +901,19 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>66.68447052885355</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -949,16 +949,16 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>104.5212131283173</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>385.5580790162737</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>108.4701098559615</v>
       </c>
       <c r="U7" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>53.03638470914571</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="8">
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>214.1099350841827</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>253.1952022697474</v>
@@ -1198,7 +1198,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>82.44954750616753</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>113.1667354347866</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>212.3952007709164</v>
       </c>
       <c r="V10" t="n">
         <v>263.319551727384</v>
@@ -1381,10 +1381,10 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F11" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1417,13 +1417,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>54.25015388424845</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>260.4059240983868</v>
       </c>
       <c r="X11" t="n">
         <v>385.5580790162737</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>89.88464088382982</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1581,22 +1581,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>113.1667354347865</v>
       </c>
       <c r="X13" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E14" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>412.725494085322</v>
@@ -1624,7 +1624,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1654,10 +1654,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1666,13 +1666,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>229.2671475085639</v>
+        <v>137.6933282219795</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X14" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>392.5258019886049</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>389.2437464820987</v>
@@ -1852,19 +1852,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>186.5361535509224</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G17" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H17" t="n">
-        <v>300.7442715783694</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1900,16 +1900,16 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X17" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>392.5258019886049</v>
@@ -2019,10 +2019,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2061,13 +2061,13 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V19" t="n">
-        <v>263.319551727384</v>
+        <v>43.66380379007082</v>
       </c>
       <c r="W19" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X19" t="n">
-        <v>66.03149870010074</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2086,16 +2086,16 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
-        <v>104.2974551061861</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>256.7115579699416</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,19 +2131,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>385.5580790162737</v>
@@ -2238,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>76.74086563202125</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2292,16 +2292,16 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>113.1667354347865</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2323,7 +2323,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D23" t="n">
-        <v>381.5867174954989</v>
+        <v>229.2671475085637</v>
       </c>
       <c r="E23" t="n">
         <v>398.5576896346209</v>
@@ -2383,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>233.2385090293379</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y23" t="n">
         <v>392.5258019886049</v>
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>66.03149870010074</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U25" t="n">
         <v>282.5844038405181</v>
@@ -2563,7 +2563,7 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E26" t="n">
-        <v>398.5576896346209</v>
+        <v>271.4748769548953</v>
       </c>
       <c r="F26" t="n">
         <v>412.725494085322</v>
@@ -2572,7 +2572,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H26" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2602,13 +2602,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>102.4606870030763</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2617,10 +2617,10 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>9.126850821345453</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,19 +2763,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>233.3618613134482</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U28" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2797,7 +2797,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
-        <v>381.5867174954989</v>
+        <v>92.31340177010368</v>
       </c>
       <c r="E29" t="n">
         <v>398.5576896346209</v>
@@ -2809,7 +2809,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H29" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>136.9537457384598</v>
@@ -2857,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y29" t="n">
-        <v>167.9683453503095</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="30">
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2967,13 +2967,13 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>49.85489993703337</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -3003,19 +3003,19 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3034,7 +3034,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D32" t="n">
-        <v>229.2671475085637</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E32" t="n">
         <v>398.5576896346209</v>
@@ -3043,13 +3043,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3091,13 +3091,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>190.8854573826493</v>
       </c>
       <c r="X32" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>233.3618613134482</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U34" t="n">
         <v>282.5844038405181</v>
@@ -3249,7 +3249,7 @@
         <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
-        <v>113.1667354347865</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3265,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>191.6541629312303</v>
       </c>
       <c r="E35" t="n">
-        <v>47.32622624132694</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
         <v>412.725494085322</v>
@@ -3283,10 +3283,10 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H35" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S35" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3325,10 +3325,10 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>385.5580790162737</v>
@@ -3474,19 +3474,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>233.3618613134482</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U37" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V37" t="n">
-        <v>175.6983641828944</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3508,16 +3508,16 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D38" t="n">
-        <v>66.68447052885357</v>
+        <v>191.6541629312303</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3553,19 +3553,19 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>385.5580790162737</v>
@@ -3663,19 +3663,19 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>41.14741695800816</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3714,22 +3714,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>115.2540412271704</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>54.7004171927703</v>
       </c>
       <c r="E41" t="n">
         <v>398.5576896346209</v>
@@ -3754,10 +3754,10 @@
         <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
-        <v>57.79966456358211</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H41" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>136.9537457384598</v>
@@ -3790,7 +3790,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3799,10 +3799,10 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>385.5580790162737</v>
@@ -3960,10 +3960,10 @@
         <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>113.1667354347865</v>
       </c>
       <c r="X43" t="n">
-        <v>113.1667354347866</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3979,10 +3979,10 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>191.6541629312303</v>
       </c>
       <c r="E44" t="n">
         <v>398.5576896346209</v>
@@ -3994,7 +3994,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H44" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,22 +4027,22 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>259.4997525758914</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y44" t="n">
         <v>392.5258019886049</v>
@@ -4188,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U46" t="n">
         <v>282.5844038405181</v>
@@ -4197,10 +4197,10 @@
         <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
-        <v>280.4970980481341</v>
+        <v>113.1667354347865</v>
       </c>
       <c r="X46" t="n">
-        <v>66.03149870010071</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2397.459527283501</v>
+        <v>1548.519290316325</v>
       </c>
       <c r="C2" t="n">
-        <v>2004.284025786432</v>
+        <v>1155.343788819255</v>
       </c>
       <c r="D2" t="n">
-        <v>1618.8428970031</v>
+        <v>1155.343788819255</v>
       </c>
       <c r="E2" t="n">
-        <v>1216.259372119644</v>
+        <v>752.7602639357997</v>
       </c>
       <c r="F2" t="n">
-        <v>799.3649336496217</v>
+        <v>335.8658254657774</v>
       </c>
       <c r="G2" t="n">
-        <v>386.2021781376249</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H2" t="n">
         <v>62.11912770411553</v>
@@ -4360,22 +4360,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="T2" t="n">
-        <v>2882.455782765193</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U2" t="n">
-        <v>2882.455782765193</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V2" t="n">
-        <v>2540.348973468711</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W2" t="n">
-        <v>2540.348973468711</v>
+        <v>2734.957350174064</v>
       </c>
       <c r="X2" t="n">
-        <v>2540.348973468711</v>
+        <v>2345.50474510712</v>
       </c>
       <c r="Y2" t="n">
-        <v>2540.348973468711</v>
+        <v>1949.014036027722</v>
       </c>
     </row>
     <row r="3">
@@ -4418,13 +4418,13 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M3" t="n">
-        <v>978.5393418843826</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N3" t="n">
-        <v>1458.313011372373</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O3" t="n">
-        <v>1974.833293963354</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P3" t="n">
         <v>2380.454662679751</v>
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>62.11912770411553</v>
+        <v>115.6912334709294</v>
       </c>
       <c r="C4" t="n">
         <v>62.11912770411553</v>
@@ -4524,16 +4524,16 @@
         <v>115.6912334709294</v>
       </c>
       <c r="V4" t="n">
-        <v>62.11912770411553</v>
+        <v>115.6912334709294</v>
       </c>
       <c r="W4" t="n">
-        <v>62.11912770411553</v>
+        <v>115.6912334709294</v>
       </c>
       <c r="X4" t="n">
-        <v>62.11912770411553</v>
+        <v>115.6912334709294</v>
       </c>
       <c r="Y4" t="n">
-        <v>62.11912770411553</v>
+        <v>115.6912334709294</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>522.652680240431</v>
+        <v>1609.434873616714</v>
       </c>
       <c r="C5" t="n">
-        <v>129.4771787433615</v>
+        <v>1216.259372119644</v>
       </c>
       <c r="D5" t="n">
-        <v>62.11912770411553</v>
+        <v>1216.259372119644</v>
       </c>
       <c r="E5" t="n">
-        <v>62.11912770411553</v>
+        <v>1216.259372119644</v>
       </c>
       <c r="F5" t="n">
-        <v>62.11912770411553</v>
+        <v>799.3649336496217</v>
       </c>
       <c r="G5" t="n">
-        <v>62.11912770411553</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="H5" t="n">
         <v>62.11912770411553</v>
@@ -4597,22 +4597,22 @@
         <v>2901.449916432349</v>
       </c>
       <c r="T5" t="n">
-        <v>2677.949313991765</v>
+        <v>2795.872933474453</v>
       </c>
       <c r="U5" t="n">
-        <v>2422.196584426364</v>
+        <v>2795.872933474453</v>
       </c>
       <c r="V5" t="n">
-        <v>2080.089775129883</v>
+        <v>2795.872933474453</v>
       </c>
       <c r="W5" t="n">
-        <v>1709.09074009817</v>
+        <v>2795.872933474453</v>
       </c>
       <c r="X5" t="n">
-        <v>1319.638135031227</v>
+        <v>2406.420328407509</v>
       </c>
       <c r="Y5" t="n">
-        <v>923.1474259518279</v>
+        <v>2009.92961932811</v>
       </c>
     </row>
     <row r="6">
@@ -4649,22 +4649,22 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K6" t="n">
-        <v>175.2341099238429</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L6" t="n">
-        <v>658.8001958221562</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M6" t="n">
-        <v>1208.156408878212</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N6" t="n">
-        <v>1863.93438008877</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O6" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P6" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q6" t="n">
         <v>2380.454662679751</v>
@@ -4749,25 +4749,25 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R7" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S7" t="n">
-        <v>636.8490770607943</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T7" t="n">
-        <v>401.1300252290284</v>
+        <v>854.0003827143937</v>
       </c>
       <c r="U7" t="n">
-        <v>115.6912334709294</v>
+        <v>568.5615909562946</v>
       </c>
       <c r="V7" t="n">
-        <v>62.11912770411553</v>
+        <v>568.5615909562946</v>
       </c>
       <c r="W7" t="n">
-        <v>62.11912770411553</v>
+        <v>285.2311888874722</v>
       </c>
       <c r="X7" t="n">
-        <v>62.11912770411553</v>
+        <v>285.2311888874722</v>
       </c>
       <c r="Y7" t="n">
         <v>62.11912770411553</v>
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1263.3065368829</v>
+        <v>1932.591342538753</v>
       </c>
       <c r="C8" t="n">
-        <v>1263.3065368829</v>
+        <v>1539.415841041684</v>
       </c>
       <c r="D8" t="n">
-        <v>877.865408099568</v>
+        <v>1153.974712258352</v>
       </c>
       <c r="E8" t="n">
-        <v>475.2818832161124</v>
+        <v>937.702050557157</v>
       </c>
       <c r="F8" t="n">
-        <v>475.2818832161124</v>
+        <v>937.702050557157</v>
       </c>
       <c r="G8" t="n">
-        <v>62.11912770411553</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="H8" t="n">
-        <v>62.11912770411553</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="I8" t="n">
         <v>62.11912770411553</v>
@@ -4828,28 +4828,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R8" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S8" t="n">
-        <v>2939.442830146827</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T8" t="n">
-        <v>2715.942227706244</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="U8" t="n">
-        <v>2460.189498140842</v>
+        <v>2645.697186866948</v>
       </c>
       <c r="V8" t="n">
-        <v>2118.082688844361</v>
+        <v>2303.590377570466</v>
       </c>
       <c r="W8" t="n">
-        <v>1747.083653812648</v>
+        <v>1932.591342538753</v>
       </c>
       <c r="X8" t="n">
-        <v>1663.801282594297</v>
+        <v>1932.591342538753</v>
       </c>
       <c r="Y8" t="n">
-        <v>1663.801282594297</v>
+        <v>1932.591342538753</v>
       </c>
     </row>
     <row r="9">
@@ -4886,10 +4886,10 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K9" t="n">
-        <v>84.60386270860994</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L9" t="n">
-        <v>568.1699486069232</v>
+        <v>381.858273766342</v>
       </c>
       <c r="M9" t="n">
         <v>568.1699486069232</v>
@@ -4986,28 +4986,28 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R10" t="n">
-        <v>849.2563164731562</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S10" t="n">
-        <v>849.2563164731562</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T10" t="n">
-        <v>613.5372646413903</v>
+        <v>727.847098413902</v>
       </c>
       <c r="U10" t="n">
-        <v>328.0984728832913</v>
+        <v>513.3064915745925</v>
       </c>
       <c r="V10" t="n">
-        <v>62.11912770411553</v>
+        <v>247.3271463954168</v>
       </c>
       <c r="W10" t="n">
-        <v>62.11912770411553</v>
+        <v>247.3271463954168</v>
       </c>
       <c r="X10" t="n">
-        <v>62.11912770411553</v>
+        <v>247.3271463954168</v>
       </c>
       <c r="Y10" t="n">
-        <v>62.11912770411553</v>
+        <v>247.3271463954168</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1660.213721337995</v>
+        <v>1656.48203837997</v>
       </c>
       <c r="C11" t="n">
-        <v>1267.038219840925</v>
+        <v>1263.3065368829</v>
       </c>
       <c r="D11" t="n">
-        <v>881.5970910575932</v>
+        <v>877.865408099568</v>
       </c>
       <c r="E11" t="n">
-        <v>479.0135661741377</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="F11" t="n">
-        <v>62.11912770411553</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G11" t="n">
         <v>62.11912770411553</v>
@@ -5065,28 +5065,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R11" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>2901.449916432349</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T11" t="n">
-        <v>2846.651781195734</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U11" t="n">
-        <v>2846.651781195734</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V11" t="n">
-        <v>2846.651781195734</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W11" t="n">
-        <v>2846.651781195734</v>
+        <v>2842.920098237709</v>
       </c>
       <c r="X11" t="n">
-        <v>2457.199176128791</v>
+        <v>2453.467493170765</v>
       </c>
       <c r="Y11" t="n">
-        <v>2060.708467049392</v>
+        <v>2056.976784091366</v>
       </c>
     </row>
     <row r="12">
@@ -5123,19 +5123,19 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K12" t="n">
-        <v>494.9732559860694</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L12" t="n">
-        <v>978.5393418843826</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M12" t="n">
-        <v>1223.947919817482</v>
+        <v>973.7913173233209</v>
       </c>
       <c r="N12" t="n">
-        <v>1223.947919817482</v>
+        <v>1629.56928853388</v>
       </c>
       <c r="O12" t="n">
-        <v>1740.468202408463</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P12" t="n">
         <v>2146.089571124861</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>321.165748153993</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C13" t="n">
-        <v>230.37318160467</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D13" t="n">
-        <v>230.37318160467</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E13" t="n">
-        <v>230.37318160467</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F13" t="n">
-        <v>230.37318160467</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G13" t="n">
         <v>62.11912770411553</v>
@@ -5229,22 +5229,22 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T13" t="n">
-        <v>963.5661502456679</v>
+        <v>727.847098413902</v>
       </c>
       <c r="U13" t="n">
-        <v>963.5661502456679</v>
+        <v>442.408306655803</v>
       </c>
       <c r="V13" t="n">
-        <v>963.5661502456679</v>
+        <v>176.4289614766272</v>
       </c>
       <c r="W13" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X13" t="n">
-        <v>729.485828028651</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y13" t="n">
-        <v>506.3737668452943</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1687.93534806666</v>
+        <v>1994.876002400046</v>
       </c>
       <c r="C14" t="n">
-        <v>1294.75984656959</v>
+        <v>1601.700500902976</v>
       </c>
       <c r="D14" t="n">
-        <v>1294.75984656959</v>
+        <v>1216.259372119644</v>
       </c>
       <c r="E14" t="n">
-        <v>892.1763216861347</v>
+        <v>1216.259372119644</v>
       </c>
       <c r="F14" t="n">
-        <v>475.2818832161124</v>
+        <v>799.3649336496217</v>
       </c>
       <c r="G14" t="n">
-        <v>62.11912770411553</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="H14" t="n">
         <v>62.11912770411553</v>
@@ -5302,28 +5302,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R14" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S14" t="n">
-        <v>3105.956385205776</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T14" t="n">
-        <v>3105.956385205776</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="U14" t="n">
-        <v>3105.956385205776</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="V14" t="n">
-        <v>2874.373407924399</v>
+        <v>2762.365746511157</v>
       </c>
       <c r="W14" t="n">
-        <v>2874.373407924399</v>
+        <v>2391.366711479445</v>
       </c>
       <c r="X14" t="n">
-        <v>2484.920802857455</v>
+        <v>2391.366711479445</v>
       </c>
       <c r="Y14" t="n">
-        <v>2088.430093778056</v>
+        <v>1994.876002400046</v>
       </c>
     </row>
     <row r="15">
@@ -5366,16 +5366,16 @@
         <v>381.858273766342</v>
       </c>
       <c r="M15" t="n">
-        <v>1009.629923393023</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N15" t="n">
-        <v>1665.407894603582</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O15" t="n">
-        <v>2181.928177194563</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P15" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1696.017722907453</v>
+        <v>1859.21330908868</v>
       </c>
       <c r="C17" t="n">
-        <v>1302.842221410383</v>
+        <v>1466.037807591611</v>
       </c>
       <c r="D17" t="n">
-        <v>917.401092627051</v>
+        <v>1080.596678808279</v>
       </c>
       <c r="E17" t="n">
-        <v>917.401092627051</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F17" t="n">
-        <v>917.401092627051</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G17" t="n">
-        <v>504.2383371150541</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H17" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I17" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J17" t="n">
-        <v>206.7689006129427</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K17" t="n">
-        <v>565.7512566404046</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L17" t="n">
-        <v>1059.071548358933</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M17" t="n">
-        <v>1605.072448403514</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N17" t="n">
-        <v>2132.883732040976</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O17" t="n">
-        <v>2572.923332933305</v>
+        <v>2572.923332933306</v>
       </c>
       <c r="P17" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q17" t="n">
-        <v>3105.956385205775</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R17" t="n">
-        <v>3105.956385205775</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S17" t="n">
-        <v>3105.956385205775</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T17" t="n">
-        <v>2882.455782765192</v>
+        <v>2882.455782765193</v>
       </c>
       <c r="U17" t="n">
-        <v>2882.455782765192</v>
+        <v>2626.703053199792</v>
       </c>
       <c r="V17" t="n">
-        <v>2882.455782765192</v>
+        <v>2626.703053199792</v>
       </c>
       <c r="W17" t="n">
-        <v>2882.455782765192</v>
+        <v>2255.704018168079</v>
       </c>
       <c r="X17" t="n">
-        <v>2493.003177698249</v>
+        <v>2255.704018168079</v>
       </c>
       <c r="Y17" t="n">
-        <v>2096.51246861885</v>
+        <v>1859.21330908868</v>
       </c>
     </row>
     <row r="18">
@@ -5579,10 +5579,10 @@
         <v>580.741913025719</v>
       </c>
       <c r="E18" t="n">
-        <v>444.2954221366067</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F18" t="n">
-        <v>319.8636160197385</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G18" t="n">
         <v>199.803798091603</v>
@@ -5591,28 +5591,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I18" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>62.11912770411551</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K18" t="n">
-        <v>62.11912770411551</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L18" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M18" t="n">
-        <v>802.5350401618138</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N18" t="n">
-        <v>1458.313011372373</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="O18" t="n">
-        <v>1974.833293963354</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P18" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>62.11912770411551</v>
+        <v>350.6921041055436</v>
       </c>
       <c r="C19" t="n">
-        <v>62.11912770411551</v>
+        <v>350.6921041055436</v>
       </c>
       <c r="D19" t="n">
-        <v>62.11912770411551</v>
+        <v>350.6921041055436</v>
       </c>
       <c r="E19" t="n">
-        <v>62.11912770411551</v>
+        <v>350.6921041055436</v>
       </c>
       <c r="F19" t="n">
-        <v>62.11912770411551</v>
+        <v>350.6921041055436</v>
       </c>
       <c r="G19" t="n">
-        <v>62.11912770411551</v>
+        <v>350.6921041055436</v>
       </c>
       <c r="H19" t="n">
-        <v>62.11912770411551</v>
+        <v>195.2135530670377</v>
       </c>
       <c r="I19" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K19" t="n">
         <v>143.9541688140574</v>
       </c>
       <c r="L19" t="n">
-        <v>308.0818086878571</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M19" t="n">
-        <v>494.3733870261211</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N19" t="n">
         <v>677.5630210573304</v>
@@ -5709,16 +5709,16 @@
         <v>678.1273584875689</v>
       </c>
       <c r="V19" t="n">
-        <v>412.1480133083932</v>
+        <v>634.0225061743661</v>
       </c>
       <c r="W19" t="n">
-        <v>128.8176112395708</v>
+        <v>350.6921041055436</v>
       </c>
       <c r="X19" t="n">
-        <v>62.11912770411551</v>
+        <v>350.6921041055436</v>
       </c>
       <c r="Y19" t="n">
-        <v>62.11912770411551</v>
+        <v>350.6921041055436</v>
       </c>
     </row>
     <row r="20">
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>560.6455939549082</v>
+        <v>1919.518325348037</v>
       </c>
       <c r="C20" t="n">
-        <v>167.4700924578388</v>
+        <v>1526.342823850968</v>
       </c>
       <c r="D20" t="n">
-        <v>62.1191277041155</v>
+        <v>1140.901695067635</v>
       </c>
       <c r="E20" t="n">
-        <v>62.1191277041155</v>
+        <v>738.3181701841797</v>
       </c>
       <c r="F20" t="n">
-        <v>62.1191277041155</v>
+        <v>321.4237317141575</v>
       </c>
       <c r="G20" t="n">
-        <v>62.1191277041155</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H20" t="n">
-        <v>62.1191277041155</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I20" t="n">
-        <v>62.1191277041155</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J20" t="n">
         <v>206.7689006129436</v>
@@ -5767,37 +5767,37 @@
         <v>2132.883732040977</v>
       </c>
       <c r="O20" t="n">
-        <v>2572.923332933305</v>
+        <v>2572.923332933306</v>
       </c>
       <c r="P20" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q20" t="n">
-        <v>3105.956385205775</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R20" t="n">
-        <v>3105.956385205775</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S20" t="n">
-        <v>2939.442830146826</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T20" t="n">
-        <v>2715.942227706243</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U20" t="n">
-        <v>2460.189498140841</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V20" t="n">
-        <v>2118.08268884436</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W20" t="n">
-        <v>1747.083653812647</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="X20" t="n">
-        <v>1357.631048745704</v>
+        <v>2716.503780138833</v>
       </c>
       <c r="Y20" t="n">
-        <v>961.1403396663052</v>
+        <v>2320.013071059434</v>
       </c>
     </row>
     <row r="21">
@@ -5816,10 +5816,10 @@
         <v>580.741913025719</v>
       </c>
       <c r="E21" t="n">
-        <v>444.2954221366067</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F21" t="n">
-        <v>319.8636160197385</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G21" t="n">
         <v>199.803798091603</v>
@@ -5828,28 +5828,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I21" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>62.11912770411551</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>62.11912770411551</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L21" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M21" t="n">
-        <v>802.5350401618138</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N21" t="n">
-        <v>1458.313011372373</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O21" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P21" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>778.3581315543667</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C22" t="n">
-        <v>608.1530136203559</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D22" t="n">
-        <v>452.5199005228706</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E22" t="n">
-        <v>296.9610883820731</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F22" t="n">
-        <v>139.6351535950461</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G22" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H22" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I22" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K22" t="n">
         <v>143.9541688140574</v>
       </c>
       <c r="L22" t="n">
-        <v>308.0818086878571</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M22" t="n">
-        <v>494.3733870261211</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N22" t="n">
         <v>677.5630210573304</v>
@@ -5940,22 +5940,22 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T22" t="n">
-        <v>963.5661502456679</v>
+        <v>727.847098413902</v>
       </c>
       <c r="U22" t="n">
-        <v>963.5661502456679</v>
+        <v>442.408306655803</v>
       </c>
       <c r="V22" t="n">
-        <v>963.5661502456679</v>
+        <v>176.4289614766272</v>
       </c>
       <c r="W22" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X22" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y22" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="23">
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2073.376476849992</v>
+        <v>1919.518325348037</v>
       </c>
       <c r="C23" t="n">
-        <v>1680.200975352922</v>
+        <v>1526.342823850968</v>
       </c>
       <c r="D23" t="n">
         <v>1294.75984656959</v>
       </c>
       <c r="E23" t="n">
-        <v>892.1763216861345</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F23" t="n">
         <v>475.2818832161124</v>
       </c>
       <c r="G23" t="n">
-        <v>62.1191277041155</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H23" t="n">
-        <v>62.1191277041155</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I23" t="n">
-        <v>62.1191277041155</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J23" t="n">
         <v>206.7689006129436</v>
@@ -6004,37 +6004,37 @@
         <v>2132.883732040977</v>
       </c>
       <c r="O23" t="n">
-        <v>2572.923332933305</v>
+        <v>2572.923332933306</v>
       </c>
       <c r="P23" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q23" t="n">
-        <v>3105.956385205775</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205775</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
-        <v>3105.956385205775</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T23" t="n">
-        <v>3105.956385205775</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U23" t="n">
-        <v>3105.956385205775</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V23" t="n">
-        <v>3105.956385205775</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W23" t="n">
-        <v>3105.956385205775</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="X23" t="n">
-        <v>2870.361931640788</v>
+        <v>2716.503780138833</v>
       </c>
       <c r="Y23" t="n">
-        <v>2473.871222561389</v>
+        <v>2320.013071059434</v>
       </c>
     </row>
     <row r="24">
@@ -6053,10 +6053,10 @@
         <v>580.741913025719</v>
       </c>
       <c r="E24" t="n">
-        <v>444.2954221366067</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F24" t="n">
-        <v>319.8636160197385</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G24" t="n">
         <v>199.803798091603</v>
@@ -6065,28 +6065,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I24" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>62.11912770411551</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K24" t="n">
-        <v>62.11912770411551</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L24" t="n">
-        <v>545.6852136024288</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M24" t="n">
-        <v>1173.45686322911</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N24" t="n">
-        <v>1829.234834439669</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O24" t="n">
-        <v>2345.75511703065</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P24" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q24" t="n">
         <v>2380.454662679751</v>
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>128.8176112395708</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C25" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D25" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E25" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F25" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G25" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H25" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I25" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
         <v>143.9541688140574</v>
       </c>
       <c r="L25" t="n">
-        <v>308.0818086878571</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M25" t="n">
-        <v>494.3733870261211</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N25" t="n">
         <v>677.5630210573304</v>
@@ -6177,22 +6177,22 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T25" t="n">
-        <v>963.5661502456679</v>
+        <v>896.8676667102127</v>
       </c>
       <c r="U25" t="n">
-        <v>678.1273584875689</v>
+        <v>611.4288749521137</v>
       </c>
       <c r="V25" t="n">
-        <v>412.1480133083932</v>
+        <v>345.4495297729379</v>
       </c>
       <c r="W25" t="n">
-        <v>128.8176112395708</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X25" t="n">
-        <v>128.8176112395708</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y25" t="n">
-        <v>128.8176112395708</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="26">
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2397.459527283501</v>
+        <v>1945.009999395724</v>
       </c>
       <c r="C26" t="n">
-        <v>2004.284025786432</v>
+        <v>1551.834497898654</v>
       </c>
       <c r="D26" t="n">
-        <v>1618.8428970031</v>
+        <v>1166.393369115322</v>
       </c>
       <c r="E26" t="n">
-        <v>1216.259372119644</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F26" t="n">
-        <v>799.3649336496217</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G26" t="n">
-        <v>386.2021781376249</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H26" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I26" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J26" t="n">
         <v>206.7689006129436</v>
@@ -6250,28 +6250,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R26" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S26" t="n">
-        <v>2901.449916432349</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T26" t="n">
-        <v>2797.954272994898</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U26" t="n">
-        <v>2797.954272994898</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V26" t="n">
-        <v>2797.954272994898</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W26" t="n">
-        <v>2797.954272994898</v>
+        <v>2734.957350174064</v>
       </c>
       <c r="X26" t="n">
-        <v>2797.954272994898</v>
+        <v>2345.50474510712</v>
       </c>
       <c r="Y26" t="n">
-        <v>2797.954272994898</v>
+        <v>2345.50474510712</v>
       </c>
     </row>
     <row r="27">
@@ -6305,25 +6305,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J27" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K27" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L27" t="n">
-        <v>381.858273766342</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M27" t="n">
-        <v>568.1699486069232</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N27" t="n">
-        <v>1223.947919817482</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O27" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P27" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q27" t="n">
         <v>2380.454662679751</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>239.5922228383523</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C28" t="n">
-        <v>239.5922228383523</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D28" t="n">
-        <v>239.5922228383523</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E28" t="n">
-        <v>239.5922228383523</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F28" t="n">
-        <v>239.5922228383523</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G28" t="n">
-        <v>71.3381689377978</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H28" t="n">
         <v>62.11912770411553</v>
@@ -6411,25 +6411,25 @@
         <v>963.5661502456679</v>
       </c>
       <c r="S28" t="n">
-        <v>760.7500664282172</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T28" t="n">
-        <v>525.0310145964513</v>
+        <v>896.8676667102127</v>
       </c>
       <c r="U28" t="n">
-        <v>239.5922228383523</v>
+        <v>611.4288749521137</v>
       </c>
       <c r="V28" t="n">
-        <v>239.5922228383523</v>
+        <v>345.4495297729379</v>
       </c>
       <c r="W28" t="n">
-        <v>239.5922228383523</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X28" t="n">
-        <v>239.5922228383523</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y28" t="n">
-        <v>239.5922228383523</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2535.796644191037</v>
+        <v>1919.518325348037</v>
       </c>
       <c r="C29" t="n">
-        <v>2142.621142693967</v>
+        <v>1526.342823850968</v>
       </c>
       <c r="D29" t="n">
-        <v>1757.180013910635</v>
+        <v>1433.096963477125</v>
       </c>
       <c r="E29" t="n">
-        <v>1354.596489027179</v>
+        <v>1030.51343859367</v>
       </c>
       <c r="F29" t="n">
-        <v>937.702050557157</v>
+        <v>613.6190001236475</v>
       </c>
       <c r="G29" t="n">
-        <v>524.5392950451601</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="H29" t="n">
         <v>200.4562446116507</v>
@@ -6505,10 +6505,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="X29" t="n">
-        <v>3105.956385205776</v>
+        <v>2716.503780138833</v>
       </c>
       <c r="Y29" t="n">
-        <v>2936.291389902433</v>
+        <v>2320.013071059434</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1586.986833370171</v>
+        <v>861.4851108441464</v>
       </c>
       <c r="C30" t="n">
-        <v>1436.332602930263</v>
+        <v>710.8308804042387</v>
       </c>
       <c r="D30" t="n">
-        <v>1306.243635551744</v>
+        <v>580.741913025719</v>
       </c>
       <c r="E30" t="n">
-        <v>1169.797144662632</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F30" t="n">
-        <v>1045.365338545763</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G30" t="n">
-        <v>925.3055206176277</v>
+        <v>199.803798091603</v>
       </c>
       <c r="H30" t="n">
-        <v>837.0081042182287</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I30" t="n">
-        <v>787.6208502301403</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J30" t="n">
-        <v>787.6208502301403</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K30" t="n">
-        <v>787.6208502301403</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L30" t="n">
-        <v>1271.186936128453</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="M30" t="n">
-        <v>1898.958585755135</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N30" t="n">
-        <v>2554.736556965694</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O30" t="n">
-        <v>3071.256839556675</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P30" t="n">
-        <v>3105.956385205776</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q30" t="n">
-        <v>3105.956385205776</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="R30" t="n">
-        <v>3082.039342103841</v>
+        <v>2356.537619577816</v>
       </c>
       <c r="S30" t="n">
-        <v>2947.10866500371</v>
+        <v>2221.606942477685</v>
       </c>
       <c r="T30" t="n">
-        <v>2770.124853202618</v>
+        <v>2044.623130676593</v>
       </c>
       <c r="U30" t="n">
-        <v>2560.06170988126</v>
+        <v>1834.559987355235</v>
       </c>
       <c r="V30" t="n">
-        <v>2337.521708252327</v>
+        <v>1612.019985726302</v>
       </c>
       <c r="W30" t="n">
-        <v>2107.404462385613</v>
+        <v>1381.902739859589</v>
       </c>
       <c r="X30" t="n">
-        <v>1918.097384735625</v>
+        <v>1192.595662209601</v>
       </c>
       <c r="Y30" t="n">
-        <v>1738.783167811132</v>
+        <v>1013.281445285108</v>
       </c>
     </row>
     <row r="31">
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>446.1554259598287</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C31" t="n">
-        <v>275.9503080258179</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D31" t="n">
-        <v>275.9503080258179</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E31" t="n">
-        <v>275.9503080258179</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F31" t="n">
-        <v>275.9503080258179</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G31" t="n">
-        <v>275.9503080258179</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H31" t="n">
-        <v>225.5918232409357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I31" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J31" t="n">
         <v>62.11912770411553</v>
@@ -6651,22 +6651,22 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T31" t="n">
-        <v>963.5661502456679</v>
+        <v>896.8676667102127</v>
       </c>
       <c r="U31" t="n">
-        <v>963.5661502456679</v>
+        <v>611.4288749521137</v>
       </c>
       <c r="V31" t="n">
-        <v>963.5661502456679</v>
+        <v>345.4495297729379</v>
       </c>
       <c r="W31" t="n">
-        <v>680.2357481768456</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X31" t="n">
-        <v>446.1554259598287</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y31" t="n">
-        <v>446.1554259598287</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1919.518325348037</v>
+        <v>2122.63388867904</v>
       </c>
       <c r="C32" t="n">
-        <v>1526.342823850968</v>
+        <v>1729.45838718197</v>
       </c>
       <c r="D32" t="n">
-        <v>1294.75984656959</v>
+        <v>1344.017258398638</v>
       </c>
       <c r="E32" t="n">
-        <v>892.1763216861347</v>
+        <v>941.4337335151823</v>
       </c>
       <c r="F32" t="n">
-        <v>475.2818832161124</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="G32" t="n">
-        <v>62.11912770411553</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="H32" t="n">
-        <v>62.11912770411553</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="I32" t="n">
         <v>62.11912770411553</v>
@@ -6727,25 +6727,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S32" t="n">
-        <v>3105.956385205776</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="T32" t="n">
-        <v>3105.956385205776</v>
+        <v>2715.942227706244</v>
       </c>
       <c r="U32" t="n">
-        <v>3105.956385205776</v>
+        <v>2715.942227706244</v>
       </c>
       <c r="V32" t="n">
-        <v>3105.956385205776</v>
+        <v>2715.942227706244</v>
       </c>
       <c r="W32" t="n">
-        <v>3105.956385205776</v>
+        <v>2523.128634390436</v>
       </c>
       <c r="X32" t="n">
-        <v>2716.503780138833</v>
+        <v>2523.128634390436</v>
       </c>
       <c r="Y32" t="n">
-        <v>2320.013071059434</v>
+        <v>2523.128634390436</v>
       </c>
     </row>
     <row r="33">
@@ -6788,13 +6788,13 @@
         <v>545.6852136024288</v>
       </c>
       <c r="M33" t="n">
-        <v>802.5350401618138</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N33" t="n">
-        <v>1458.313011372373</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O33" t="n">
-        <v>1974.833293963354</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="P33" t="n">
         <v>2380.454662679751</v>
@@ -6888,13 +6888,13 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T34" t="n">
-        <v>727.847098413902</v>
+        <v>896.8676667102127</v>
       </c>
       <c r="U34" t="n">
-        <v>442.408306655803</v>
+        <v>611.4288749521137</v>
       </c>
       <c r="V34" t="n">
-        <v>176.4289614766272</v>
+        <v>345.4495297729379</v>
       </c>
       <c r="W34" t="n">
         <v>62.11912770411553</v>
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1402.400757957813</v>
+        <v>1881.525411633559</v>
       </c>
       <c r="C35" t="n">
-        <v>1402.400757957813</v>
+        <v>1488.349910136489</v>
       </c>
       <c r="D35" t="n">
-        <v>1402.400757957813</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E35" t="n">
-        <v>1354.596489027179</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F35" t="n">
-        <v>937.702050557157</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G35" t="n">
-        <v>524.5392950451601</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H35" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I35" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J35" t="n">
         <v>206.7689006129436</v>
@@ -6964,25 +6964,25 @@
         <v>3067.963471491298</v>
       </c>
       <c r="S35" t="n">
-        <v>2901.449916432349</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="T35" t="n">
-        <v>2901.449916432349</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="U35" t="n">
-        <v>2901.449916432349</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="V35" t="n">
-        <v>2559.343107135867</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="W35" t="n">
-        <v>2188.344072104155</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="X35" t="n">
-        <v>1798.891467037211</v>
+        <v>2678.510866424355</v>
       </c>
       <c r="Y35" t="n">
-        <v>1402.400757957813</v>
+        <v>2282.020157344956</v>
       </c>
     </row>
     <row r="36">
@@ -7022,19 +7022,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="L36" t="n">
-        <v>545.6852136024288</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="M36" t="n">
-        <v>1173.45686322911</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N36" t="n">
-        <v>1829.234834439669</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O36" t="n">
-        <v>2345.75511703065</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P36" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.454662679751</v>
@@ -7122,16 +7122,16 @@
         <v>963.5661502456679</v>
       </c>
       <c r="S37" t="n">
-        <v>760.7500664282172</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T37" t="n">
-        <v>525.0310145964513</v>
+        <v>896.8676667102127</v>
       </c>
       <c r="U37" t="n">
-        <v>239.5922228383523</v>
+        <v>611.4288749521137</v>
       </c>
       <c r="V37" t="n">
-        <v>62.11912770411553</v>
+        <v>345.4495297729379</v>
       </c>
       <c r="W37" t="n">
         <v>62.11912770411553</v>
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>522.652680240431</v>
+        <v>1881.525411633559</v>
       </c>
       <c r="C38" t="n">
-        <v>129.4771787433615</v>
+        <v>1488.349910136489</v>
       </c>
       <c r="D38" t="n">
-        <v>62.11912770411551</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E38" t="n">
-        <v>62.11912770411551</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F38" t="n">
-        <v>62.11912770411551</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G38" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H38" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I38" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J38" t="n">
         <v>206.7689006129436</v>
@@ -7201,25 +7201,25 @@
         <v>3067.963471491298</v>
       </c>
       <c r="S38" t="n">
-        <v>2901.449916432349</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="T38" t="n">
-        <v>2677.949313991765</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="U38" t="n">
-        <v>2422.196584426364</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="V38" t="n">
-        <v>2080.089775129883</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="W38" t="n">
-        <v>1709.09074009817</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="X38" t="n">
-        <v>1319.638135031227</v>
+        <v>2678.510866424355</v>
       </c>
       <c r="Y38" t="n">
-        <v>923.1474259518279</v>
+        <v>2282.020157344956</v>
       </c>
     </row>
     <row r="39">
@@ -7253,22 +7253,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K39" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L39" t="n">
-        <v>545.6852136024288</v>
+        <v>580.3847592515303</v>
       </c>
       <c r="M39" t="n">
-        <v>1173.45686322911</v>
+        <v>1208.156408878212</v>
       </c>
       <c r="N39" t="n">
-        <v>1829.234834439669</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O39" t="n">
-        <v>1974.833293963354</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P39" t="n">
         <v>2380.454662679751</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>740.4540890623113</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C40" t="n">
-        <v>698.8910416299798</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D40" t="n">
-        <v>543.2579285324946</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E40" t="n">
-        <v>387.699116391697</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F40" t="n">
-        <v>230.37318160467</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G40" t="n">
         <v>62.11912770411553</v>
@@ -7362,22 +7362,22 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T40" t="n">
-        <v>963.5661502456679</v>
+        <v>727.847098413902</v>
       </c>
       <c r="U40" t="n">
-        <v>963.5661502456679</v>
+        <v>611.4288749521137</v>
       </c>
       <c r="V40" t="n">
-        <v>963.5661502456679</v>
+        <v>345.4495297729379</v>
       </c>
       <c r="W40" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X40" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y40" t="n">
-        <v>740.4540890623113</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1402.400757957812</v>
+        <v>1881.525411633559</v>
       </c>
       <c r="C41" t="n">
-        <v>1402.400757957812</v>
+        <v>1488.349910136489</v>
       </c>
       <c r="D41" t="n">
-        <v>1402.400757957812</v>
+        <v>1433.096963477125</v>
       </c>
       <c r="E41" t="n">
-        <v>999.8172330743562</v>
+        <v>1030.51343859367</v>
       </c>
       <c r="F41" t="n">
-        <v>582.9227946043339</v>
+        <v>613.6190001236475</v>
       </c>
       <c r="G41" t="n">
-        <v>524.5392950451601</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="H41" t="n">
         <v>200.4562446116507</v>
       </c>
       <c r="I41" t="n">
-        <v>62.1191277041155</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J41" t="n">
         <v>206.7689006129436</v>
@@ -7426,37 +7426,37 @@
         <v>2132.883732040977</v>
       </c>
       <c r="O41" t="n">
-        <v>2572.923332933305</v>
+        <v>2572.923332933306</v>
       </c>
       <c r="P41" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q41" t="n">
-        <v>3105.956385205775</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R41" t="n">
-        <v>3067.963471491297</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S41" t="n">
-        <v>2901.449916432348</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="T41" t="n">
-        <v>2901.449916432348</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="U41" t="n">
-        <v>2901.449916432348</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="V41" t="n">
-        <v>2559.343107135866</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="W41" t="n">
-        <v>2188.344072104154</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="X41" t="n">
-        <v>1798.891467037211</v>
+        <v>2678.510866424355</v>
       </c>
       <c r="Y41" t="n">
-        <v>1402.400757957812</v>
+        <v>2282.020157344956</v>
       </c>
     </row>
     <row r="42">
@@ -7475,10 +7475,10 @@
         <v>580.741913025719</v>
       </c>
       <c r="E42" t="n">
-        <v>444.2954221366067</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F42" t="n">
-        <v>319.8636160197385</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G42" t="n">
         <v>199.803798091603</v>
@@ -7487,22 +7487,22 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I42" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>62.11912770411551</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K42" t="n">
-        <v>381.8582737663419</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L42" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>1493.196009291336</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N42" t="n">
-        <v>2148.973980501895</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O42" t="n">
         <v>2380.454662679751</v>
@@ -7545,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C43" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D43" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E43" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F43" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G43" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H43" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I43" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K43" t="n">
         <v>143.9541688140574</v>
       </c>
       <c r="L43" t="n">
-        <v>308.0818086878571</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M43" t="n">
-        <v>494.3733870261211</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N43" t="n">
         <v>677.5630210573304</v>
@@ -7608,13 +7608,13 @@
         <v>176.4289614766272</v>
       </c>
       <c r="W43" t="n">
-        <v>176.4289614766272</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X43" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y43" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1618.8428970031</v>
+        <v>1881.525411633559</v>
       </c>
       <c r="C44" t="n">
-        <v>1618.8428970031</v>
+        <v>1488.349910136489</v>
       </c>
       <c r="D44" t="n">
-        <v>1618.8428970031</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E44" t="n">
-        <v>1216.259372119644</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F44" t="n">
-        <v>799.3649336496217</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G44" t="n">
-        <v>386.2021781376249</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H44" t="n">
         <v>62.11912770411553</v>
@@ -7675,25 +7675,25 @@
         <v>3067.963471491298</v>
       </c>
       <c r="S44" t="n">
-        <v>2901.449916432349</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="T44" t="n">
-        <v>2677.949313991765</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="U44" t="n">
-        <v>2677.949313991765</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="V44" t="n">
-        <v>2415.828351793895</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="W44" t="n">
-        <v>2415.828351793895</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="X44" t="n">
-        <v>2415.828351793895</v>
+        <v>2678.510866424355</v>
       </c>
       <c r="Y44" t="n">
-        <v>2019.337642714496</v>
+        <v>2282.020157344956</v>
       </c>
     </row>
     <row r="45">
@@ -7727,25 +7727,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K45" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L45" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>865.4243596646552</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N45" t="n">
-        <v>1223.947919817482</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O45" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P45" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7836,16 +7836,16 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T46" t="n">
-        <v>963.5661502456679</v>
+        <v>727.847098413902</v>
       </c>
       <c r="U46" t="n">
-        <v>678.1273584875689</v>
+        <v>442.408306655803</v>
       </c>
       <c r="V46" t="n">
-        <v>412.1480133083932</v>
+        <v>176.4289614766272</v>
       </c>
       <c r="W46" t="n">
-        <v>128.8176112395708</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X46" t="n">
         <v>62.11912770411553</v>
@@ -7996,10 +7996,10 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>502.0059847475129</v>
+        <v>502.0059847475131</v>
       </c>
       <c r="Q2" t="n">
-        <v>331.2113854294514</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8066,16 +8066,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N3" t="n">
-        <v>569.9919810238538</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P3" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q3" t="n">
         <v>90.98815315591399</v>
@@ -8236,7 +8236,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
-        <v>331.2113854294514</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8297,25 +8297,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>647.2923877624991</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N6" t="n">
-        <v>747.7741039759435</v>
+        <v>220.8844470939643</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P6" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8461,7 +8461,7 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
-        <v>701.2411122488187</v>
+        <v>701.2411122488188</v>
       </c>
       <c r="N8" t="n">
         <v>682.2612020826953</v>
@@ -8534,13 +8534,13 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K9" t="n">
-        <v>112.3087888732267</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M9" t="n">
-        <v>92.38712204931191</v>
+        <v>280.5807329993939</v>
       </c>
       <c r="N9" t="n">
         <v>747.7741039759435</v>
@@ -8710,7 +8710,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q11" t="n">
-        <v>331.2113854294514</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R11" t="n">
         <v>102.5176150018526</v>
@@ -8771,22 +8771,22 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L12" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>340.2745745069883</v>
+        <v>410.5599720504884</v>
       </c>
       <c r="N12" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q12" t="n">
         <v>327.7205688679246</v>
@@ -9014,7 +9014,7 @@
         <v>90.06034685691823</v>
       </c>
       <c r="M15" t="n">
-        <v>726.4998994499999</v>
+        <v>280.5807329993939</v>
       </c>
       <c r="N15" t="n">
         <v>747.7741039759435</v>
@@ -9023,10 +9023,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>287.6151683397065</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>263.7907196684342</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K17" t="n">
         <v>505.666843611017</v>
@@ -9242,28 +9242,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>351.8313913012159</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
-        <v>747.7741039759435</v>
+        <v>630.6030013529515</v>
       </c>
       <c r="O18" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P18" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9479,28 +9479,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>351.8313913012159</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N21" t="n">
-        <v>747.7741039759435</v>
+        <v>220.8844470939643</v>
       </c>
       <c r="O21" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P21" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9716,16 +9716,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M24" t="n">
-        <v>726.4998994499999</v>
+        <v>166.3231752016895</v>
       </c>
       <c r="N24" t="n">
         <v>747.7741039759435</v>
@@ -9734,10 +9734,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9953,28 +9953,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>280.5807329993939</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N27" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O27" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P27" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q27" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10196,10 +10196,10 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L30" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M30" t="n">
-        <v>726.4998994499999</v>
+        <v>603.5495674056833</v>
       </c>
       <c r="N30" t="n">
         <v>747.7741039759435</v>
@@ -10208,10 +10208,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
-        <v>122.1334109295184</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10436,7 +10436,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>351.8313913012159</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
         <v>747.7741039759435</v>
@@ -10445,7 +10445,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
-        <v>496.801919078302</v>
+        <v>122.133410929518</v>
       </c>
       <c r="Q33" t="n">
         <v>90.98815315591399</v>
@@ -10670,10 +10670,10 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L36" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M36" t="n">
-        <v>726.4998994499999</v>
+        <v>603.5495674056833</v>
       </c>
       <c r="N36" t="n">
         <v>747.7741039759435</v>
@@ -10682,10 +10682,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10901,13 +10901,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
-        <v>578.5109386733963</v>
+        <v>176.3345925796061</v>
       </c>
       <c r="M39" t="n">
         <v>726.4998994499999</v>
@@ -10916,10 +10916,10 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O39" t="n">
-        <v>239.756709922914</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q39" t="n">
         <v>90.98815315591399</v>
@@ -11068,7 +11068,7 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M41" t="n">
-        <v>701.2411122488187</v>
+        <v>701.2411122488188</v>
       </c>
       <c r="N41" t="n">
         <v>682.2612020826953</v>
@@ -11138,7 +11138,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
         <v>412.5657697396227</v>
@@ -11153,7 +11153,7 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O42" t="n">
-        <v>326.5064297756122</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P42" t="n">
         <v>87.08336481931465</v>
@@ -11375,7 +11375,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
         <v>412.5657697396227</v>
@@ -11384,19 +11384,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>447.5171231095475</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O45" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P45" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q45" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -22546,13 +22546,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>255.0292465309249</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -22561,10 +22561,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>138.0218971728315</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -22600,22 +22600,22 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22707,7 +22707,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>115.466682045525</v>
       </c>
       <c r="D4" t="n">
         <v>154.0767819665104</v>
@@ -22764,7 +22764,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>210.2831670182383</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
         <v>280.4970980481341</v>
@@ -22789,19 +22789,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>314.9022469666454</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>136.9537457384598</v>
@@ -22837,16 +22837,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>116.7443832878602</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -22989,28 +22989,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>124.8917514574867</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>210.2831670182383</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23020,16 +23020,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>184.4477545504382</v>
       </c>
       <c r="F8" t="n">
         <v>412.725494085322</v>
@@ -23038,10 +23038,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23068,13 +23068,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -23086,7 +23086,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>303.1085315101062</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
         <v>392.5258019886049</v>
@@ -23178,7 +23178,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>168.5030667546707</v>
@@ -23226,7 +23226,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>9.49524403896217</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
         <v>200.7879229792761</v>
@@ -23235,7 +23235,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>70.18920306960169</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -23269,10 +23269,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G11" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>320.8422199291742</v>
@@ -23305,13 +23305,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T11" t="n">
-        <v>167.015442531929</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U11" t="n">
         <v>253.1952022697474</v>
@@ -23320,7 +23320,7 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W11" t="n">
-        <v>367.2890446813954</v>
+        <v>106.8831205830086</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C13" t="n">
-        <v>78.61842587084085</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D13" t="n">
         <v>154.0767819665104</v>
@@ -23430,7 +23430,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H13" t="n">
         <v>153.923765528121</v>
@@ -23469,22 +23469,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T13" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>280.4970980481341</v>
+        <v>167.3303626133476</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="14">
@@ -23494,16 +23494,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>136.9537457384598</v>
@@ -23542,10 +23542,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>221.2655964161775</v>
@@ -23554,13 +23554,13 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V14" t="n">
-        <v>109.4185936949529</v>
+        <v>200.9924129815373</v>
       </c>
       <c r="W14" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23740,19 +23740,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>398.5576896346209</v>
+        <v>212.0215360836985</v>
       </c>
       <c r="F17" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>20.09794835080487</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23788,16 +23788,16 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W17" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H19" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>30.07448747215907</v>
@@ -23949,13 +23949,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>219.6557479373132</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>165.708020294746</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y19" t="n">
         <v>220.8809405715231</v>
@@ -23974,16 +23974,16 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>277.2892623893129</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>409.0311279568768</v>
+        <v>152.3195699869353</v>
       </c>
       <c r="H20" t="n">
         <v>320.8422199291742</v>
@@ -24019,19 +24019,19 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24126,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G22" t="n">
-        <v>89.83064772952766</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H22" t="n">
         <v>153.923765528121</v>
@@ -24180,16 +24180,16 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T22" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>280.4970980481341</v>
+        <v>167.3303626133476</v>
       </c>
       <c r="X22" t="n">
         <v>231.7395189948467</v>
@@ -24211,7 +24211,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>152.3195699869353</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24271,7 +24271,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X23" t="n">
-        <v>152.3195699869358</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C25" t="n">
-        <v>102.4715680545699</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D25" t="n">
         <v>154.0767819665104</v>
@@ -24417,7 +24417,7 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T25" t="n">
-        <v>233.3618613134482</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24451,7 +24451,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>127.0828126797256</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24460,7 +24460,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I26" t="n">
         <v>136.9537457384598</v>
@@ -24490,13 +24490,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T26" t="n">
-        <v>118.8049094131012</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U26" t="n">
         <v>253.1952022697474</v>
@@ -24505,10 +24505,10 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W26" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>392.5258019886049</v>
@@ -24615,10 +24615,10 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7969147067755</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I28" t="n">
         <v>131.7634811092929</v>
@@ -24651,19 +24651,19 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>231.7395189948467</v>
@@ -24685,7 +24685,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>289.2733157253953</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24697,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24745,10 +24745,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X29" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>224.5574566382954</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24840,7 +24840,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D31" t="n">
         <v>154.0767819665104</v>
@@ -24855,13 +24855,13 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H31" t="n">
-        <v>104.0688655910876</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24891,19 +24891,19 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T31" t="n">
-        <v>233.3618613134482</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U31" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y31" t="n">
         <v>220.8809405715231</v>
@@ -24922,7 +24922,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>152.3195699869353</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24931,13 +24931,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H32" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,10 +24967,10 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>253.1952022697474</v>
@@ -24979,13 +24979,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W32" t="n">
-        <v>367.2890446813954</v>
+        <v>176.4035872987461</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="33">
@@ -25128,7 +25128,7 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>167.3303626133476</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>231.7395189948467</v>
@@ -25153,16 +25153,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>381.5867174954989</v>
+        <v>189.9325545642687</v>
       </c>
       <c r="E35" t="n">
-        <v>351.231463393294</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25171,10 +25171,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T35" t="n">
         <v>221.2655964161775</v>
@@ -25213,10 +25213,10 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25362,19 +25362,19 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>87.62118754448966</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>231.7395189948467</v>
@@ -25396,16 +25396,16 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>314.9022469666454</v>
+        <v>189.9325545642687</v>
       </c>
       <c r="E38" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>320.8422199291742</v>
@@ -25441,19 +25441,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25551,19 +25551,19 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C40" t="n">
-        <v>127.3556497966625</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H40" t="n">
         <v>153.923765528121</v>
@@ -25602,22 +25602,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T40" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>282.5844038405181</v>
+        <v>167.3303626133476</v>
       </c>
       <c r="V40" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="41">
@@ -25627,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>381.5867174954989</v>
+        <v>326.8863003027286</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25642,10 +25642,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>351.2314633932947</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T41" t="n">
         <v>221.2655964161775</v>
@@ -25687,10 +25687,10 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25848,10 +25848,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>280.4970980481341</v>
+        <v>167.3303626133476</v>
       </c>
       <c r="X43" t="n">
-        <v>118.5727835600601</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y43" t="n">
         <v>220.8809405715231</v>
@@ -25867,10 +25867,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>381.5867174954989</v>
+        <v>189.9325545642687</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25882,7 +25882,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I44" t="n">
         <v>136.9537457384598</v>
@@ -25915,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U44" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V44" t="n">
-        <v>79.18598862762542</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26076,7 +26076,7 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T46" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26085,10 +26085,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>167.3303626133476</v>
       </c>
       <c r="X46" t="n">
-        <v>165.708020294746</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y46" t="n">
         <v>220.8809405715231</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>674280.1770062416</v>
+        <v>674280.1770062414</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>674280.1770062416</v>
+        <v>674280.1770062414</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>674280.1770062412</v>
+        <v>674280.1770062414</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>674280.1770062412</v>
+        <v>674280.1770062414</v>
       </c>
     </row>
     <row r="8">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>674280.1770062415</v>
+        <v>674280.1770062414</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>674280.1770062414</v>
+        <v>674280.1770062415</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>674280.1770062415</v>
+        <v>674280.1770062414</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>674280.1770062415</v>
+        <v>674280.1770062414</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>674280.1770062415</v>
+        <v>674280.1770062414</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>216278.5473416248</v>
+        <v>216278.5473416247</v>
       </c>
       <c r="C2" t="n">
         <v>216278.5473416247</v>
@@ -26328,7 +26328,7 @@
         <v>216278.5473416247</v>
       </c>
       <c r="G2" t="n">
-        <v>216278.5473416247</v>
+        <v>216278.5473416248</v>
       </c>
       <c r="H2" t="n">
         <v>216278.5473416247</v>
@@ -26349,13 +26349,13 @@
         <v>216278.5473416248</v>
       </c>
       <c r="N2" t="n">
-        <v>216278.5473416248</v>
+        <v>216278.5473416247</v>
       </c>
       <c r="O2" t="n">
+        <v>216278.5473416246</v>
+      </c>
+      <c r="P2" t="n">
         <v>216278.5473416247</v>
-      </c>
-      <c r="P2" t="n">
-        <v>216278.5473416248</v>
       </c>
     </row>
     <row r="3">
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>203163.7131126951</v>
+        <v>203163.713112695</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26420,37 +26420,37 @@
         <v>548.8206074562066</v>
       </c>
       <c r="C4" t="n">
+        <v>548.8206074562065</v>
+      </c>
+      <c r="D4" t="n">
+        <v>548.8206074562065</v>
+      </c>
+      <c r="E4" t="n">
         <v>548.8206074562066</v>
       </c>
-      <c r="D4" t="n">
+      <c r="F4" t="n">
+        <v>548.8206074562065</v>
+      </c>
+      <c r="G4" t="n">
         <v>548.8206074562066</v>
       </c>
-      <c r="E4" t="n">
+      <c r="H4" t="n">
         <v>548.8206074562065</v>
       </c>
-      <c r="F4" t="n">
-        <v>548.8206074562066</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>548.8206074562065</v>
-      </c>
-      <c r="H4" t="n">
-        <v>548.8206074562066</v>
-      </c>
-      <c r="I4" t="n">
-        <v>548.8206074562066</v>
       </c>
       <c r="J4" t="n">
         <v>548.8206074562066</v>
       </c>
       <c r="K4" t="n">
-        <v>548.8206074562066</v>
+        <v>548.8206074562065</v>
       </c>
       <c r="L4" t="n">
-        <v>548.8206074562066</v>
+        <v>548.8206074562065</v>
       </c>
       <c r="M4" t="n">
-        <v>548.8206074562066</v>
+        <v>548.8206074562065</v>
       </c>
       <c r="N4" t="n">
         <v>548.8206074562066</v>
@@ -26484,13 +26484,13 @@
         <v>47210.5370551278</v>
       </c>
       <c r="G5" t="n">
-        <v>47210.53705512778</v>
+        <v>47210.5370551278</v>
       </c>
       <c r="H5" t="n">
-        <v>47210.53705512778</v>
+        <v>47210.5370551278</v>
       </c>
       <c r="I5" t="n">
-        <v>47210.53705512778</v>
+        <v>47210.5370551278</v>
       </c>
       <c r="J5" t="n">
         <v>47210.5370551278</v>
@@ -26508,7 +26508,7 @@
         <v>47210.5370551278</v>
       </c>
       <c r="O5" t="n">
-        <v>47210.53705512778</v>
+        <v>47210.5370551278</v>
       </c>
       <c r="P5" t="n">
         <v>47210.5370551278</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-125327.765740788</v>
+        <v>-125858.8607726534</v>
       </c>
       <c r="C6" t="n">
-        <v>134891.5896790407</v>
+        <v>134360.4946471755</v>
       </c>
       <c r="D6" t="n">
-        <v>134891.5896790408</v>
+        <v>134360.4946471757</v>
       </c>
       <c r="E6" t="n">
-        <v>168519.1896790407</v>
+        <v>167988.0946471755</v>
       </c>
       <c r="F6" t="n">
-        <v>168519.1896790407</v>
+        <v>167988.0946471756</v>
       </c>
       <c r="G6" t="n">
-        <v>168519.1896790407</v>
+        <v>167988.0946471756</v>
       </c>
       <c r="H6" t="n">
-        <v>168519.1896790407</v>
+        <v>167988.0946471756</v>
       </c>
       <c r="I6" t="n">
-        <v>168519.1896790407</v>
+        <v>167988.0946471755</v>
       </c>
       <c r="J6" t="n">
-        <v>-34644.52343365434</v>
+        <v>-35175.61846551953</v>
       </c>
       <c r="K6" t="n">
-        <v>168519.1896790407</v>
+        <v>167988.0946471756</v>
       </c>
       <c r="L6" t="n">
-        <v>168519.1896790408</v>
+        <v>167988.0946471756</v>
       </c>
       <c r="M6" t="n">
-        <v>168519.1896790408</v>
+        <v>167988.0946471756</v>
       </c>
       <c r="N6" t="n">
-        <v>168519.1896790408</v>
+        <v>167988.0946471755</v>
       </c>
       <c r="O6" t="n">
-        <v>168519.1896790407</v>
+        <v>167988.0946471755</v>
       </c>
       <c r="P6" t="n">
-        <v>168519.1896790408</v>
+        <v>167988.0946471755</v>
       </c>
     </row>
   </sheetData>
@@ -26804,13 +26804,13 @@
         <v>776.4890963014441</v>
       </c>
       <c r="G4" t="n">
-        <v>776.4890963014439</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="H4" t="n">
-        <v>776.4890963014439</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="I4" t="n">
-        <v>776.4890963014439</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
         <v>776.4890963014441</v>
@@ -26828,7 +26828,7 @@
         <v>776.4890963014441</v>
       </c>
       <c r="O4" t="n">
-        <v>776.4890963014439</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="P4" t="n">
         <v>776.4890963014441</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>776.4890963014443</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -34716,10 +34716,10 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>351.7045375065877</v>
+        <v>351.7045375065879</v>
       </c>
       <c r="Q2" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34786,16 +34786,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N3" t="n">
-        <v>484.6198681696871</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P3" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34956,7 +34956,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>554.9052657131872</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N6" t="n">
-        <v>662.4019911217769</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35181,7 +35181,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
-        <v>551.5160606510915</v>
+        <v>551.5160606510916</v>
       </c>
       <c r="N8" t="n">
         <v>533.1427107449111</v>
@@ -35254,13 +35254,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>22.71185353989334</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>188.193610950082</v>
       </c>
       <c r="N9" t="n">
         <v>662.4019911217769</v>
@@ -35491,22 +35491,22 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>247.8874524576764</v>
+        <v>318.1728500011765</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>236.7324157120106</v>
@@ -35734,7 +35734,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>634.1127774006881</v>
+        <v>188.193610950082</v>
       </c>
       <c r="N15" t="n">
         <v>662.4019911217769</v>
@@ -35743,10 +35743,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>200.5318035203919</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>146.1108817260881</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K17" t="n">
         <v>362.6084404317796</v>
@@ -35901,7 +35901,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P17" t="n">
-        <v>351.7045375065877</v>
+        <v>351.7045375065879</v>
       </c>
       <c r="Q17" t="n">
         <v>186.7126870110591</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>259.444269251904</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N18" t="n">
-        <v>662.4019911217769</v>
+        <v>545.2308884987849</v>
       </c>
       <c r="O18" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>259.444269251904</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N21" t="n">
-        <v>662.4019911217769</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="O21" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36436,16 +36436,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>634.1127774006881</v>
+        <v>73.93605315237758</v>
       </c>
       <c r="N24" t="n">
         <v>662.4019911217769</v>
@@ -36454,10 +36454,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>188.193610950082</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N27" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O27" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P27" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36849,7 +36849,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P29" t="n">
-        <v>351.7045375065877</v>
+        <v>351.7045375065879</v>
       </c>
       <c r="Q29" t="n">
         <v>186.7126870110591</v>
@@ -36916,10 +36916,10 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>634.1127774006881</v>
+        <v>511.1624453563714</v>
       </c>
       <c r="N30" t="n">
         <v>662.4019911217769</v>
@@ -36928,10 +36928,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P30" t="n">
-        <v>35.0500461102038</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37156,7 +37156,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>259.444269251904</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
         <v>662.4019911217769</v>
@@ -37165,7 +37165,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P33" t="n">
-        <v>409.7185542589873</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37390,10 +37390,10 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>634.1127774006881</v>
+        <v>511.1624453563714</v>
       </c>
       <c r="N36" t="n">
         <v>662.4019911217769</v>
@@ -37402,10 +37402,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37621,13 +37621,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
-        <v>488.450591816478</v>
+        <v>86.27424572268784</v>
       </c>
       <c r="M39" t="n">
         <v>634.1127774006881</v>
@@ -37636,10 +37636,10 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O39" t="n">
-        <v>147.0691510340251</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37788,7 +37788,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M41" t="n">
-        <v>551.5160606510915</v>
+        <v>551.5160606510916</v>
       </c>
       <c r="N41" t="n">
         <v>533.1427107449111</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
         <v>322.9688344062893</v>
@@ -37873,7 +37873,7 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O42" t="n">
-        <v>233.8188708867233</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
         <v>322.9688344062893</v>
@@ -38104,19 +38104,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>362.1450102553808</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O45" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P45" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
